--- a/MTO; RACK PRINCIPAL.xlsx
+++ b/MTO; RACK PRINCIPAL.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I200"/>
+  <dimension ref="A1:I219"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -411,7 +411,7 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>301.70000000000005</v>
+        <v>301.69999999999993</v>
       </c>
       <c r="B2" t="str">
         <v>M.L</v>
@@ -440,7 +440,7 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>22.38</v>
+        <v>22.380000000000003</v>
       </c>
       <c r="B3" t="str">
         <v>M.L</v>
@@ -469,7 +469,7 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>68.11000000000001</v>
+        <v>68.11</v>
       </c>
       <c r="B4" t="str">
         <v>M.L</v>
@@ -539,24 +539,24 @@
         <v>PIPE, SEAMLESS, BE, SCH 160, B36.10, A106 GR. B</v>
       </c>
       <c r="E6">
-        <v>16.664999999999996</v>
+        <v>16.665</v>
       </c>
       <c r="F6">
-        <v>382510.13148636743</v>
+        <v>382510.1314863675</v>
       </c>
       <c r="G6">
         <v>67265.052960875</v>
       </c>
       <c r="H6">
-        <v>12662.284528245</v>
+        <v>12662.284528244998</v>
       </c>
       <c r="I6">
-        <v>11.109999999999998</v>
+        <v>11.11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>4.140000000000001</v>
+        <v>4.14</v>
       </c>
       <c r="B7" t="str">
         <v>M.L</v>
@@ -571,16 +571,16 @@
         <v>88.389</v>
       </c>
       <c r="F7">
-        <v>2056873.0079485006</v>
+        <v>2056873.0079485</v>
       </c>
       <c r="G7">
-        <v>319601.6468269381</v>
+        <v>319601.646826938</v>
       </c>
       <c r="H7">
-        <v>65353.29024161701</v>
+        <v>65353.290241616996</v>
       </c>
       <c r="I7">
-        <v>21.349999999999994</v>
+        <v>21.35</v>
       </c>
     </row>
     <row r="8">
@@ -597,19 +597,19 @@
         <v>PIPE, SEAMLESS, BE, SCH 160, B36.10, A106 GR. B</v>
       </c>
       <c r="E8">
-        <v>2534.6177999999995</v>
+        <v>2534.6178</v>
       </c>
       <c r="F8">
-        <v>92376925.20086195</v>
+        <v>92376925.20086193</v>
       </c>
       <c r="G8">
-        <v>125091460.60687277</v>
+        <v>125091460.60687275</v>
       </c>
       <c r="H8">
-        <v>-2615477.839890521</v>
+        <v>-2615477.8398905206</v>
       </c>
       <c r="I8">
-        <v>33.54</v>
+        <v>33.540000000000006</v>
       </c>
     </row>
     <row r="9">
@@ -626,24 +626,24 @@
         <v>PIPE, SEAMLESS, BE, SCH 40, B36.10, A106 GR. B</v>
       </c>
       <c r="E9">
-        <v>48.851200000000006</v>
+        <v>48.8512</v>
       </c>
       <c r="F9">
-        <v>3199207.3740952364</v>
+        <v>3199207.374095236</v>
       </c>
       <c r="G9">
-        <v>1367723.4629651231</v>
+        <v>1367723.4629651234</v>
       </c>
       <c r="H9">
-        <v>15020.429983558404</v>
+        <v>15020.429983558399</v>
       </c>
       <c r="I9">
-        <v>5.44</v>
+        <v>5.4399999999999995</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>28.499999999999993</v>
+        <v>28.500000000000004</v>
       </c>
       <c r="B10" t="str">
         <v>M.L</v>
@@ -655,10 +655,10 @@
         <v>PIPE, SEAMLESS, BE, SCH 40, B36.10, A106 GR. B</v>
       </c>
       <c r="E10">
-        <v>321.76499999999993</v>
+        <v>321.765</v>
       </c>
       <c r="F10">
-        <v>25784639.24529736</v>
+        <v>25784639.24529737</v>
       </c>
       <c r="G10">
         <v>15643019.331771763</v>
@@ -667,7 +667,7 @@
         <v>107064.31806106587</v>
       </c>
       <c r="I10">
-        <v>11.290000000000001</v>
+        <v>11.289999999999997</v>
       </c>
     </row>
     <row r="11">
@@ -687,13 +687,13 @@
         <v>97.44479999999999</v>
       </c>
       <c r="F11">
-        <v>6159985.228039693</v>
+        <v>6159985.228039694</v>
       </c>
       <c r="G11">
-        <v>1043352.4798472087</v>
+        <v>1043352.4798472086</v>
       </c>
       <c r="H11">
-        <v>162689.3540285664</v>
+        <v>162689.35402856636</v>
       </c>
       <c r="I11">
         <v>16.08</v>
@@ -701,7 +701,7 @@
     </row>
     <row r="12">
       <c r="A12">
-        <v>300.79999999999995</v>
+        <v>300.7999999999999</v>
       </c>
       <c r="B12" t="str">
         <v>M.L</v>
@@ -716,16 +716,16 @@
         <v>8500.608</v>
       </c>
       <c r="F12">
-        <v>865734560.7351846</v>
+        <v>865734560.7351842</v>
       </c>
       <c r="G12">
-        <v>343220689.02638686</v>
+        <v>343220689.02638704</v>
       </c>
       <c r="H12">
-        <v>21420953.763483472</v>
+        <v>21420953.763483476</v>
       </c>
       <c r="I12">
-        <v>28.260000000000005</v>
+        <v>28.26000000000001</v>
       </c>
     </row>
     <row r="13">
@@ -742,24 +742,24 @@
         <v>PIPE, SEAMLESS, BE, SCH 80, B36.10, A106 GR B</v>
       </c>
       <c r="E13">
-        <v>217.75019999999995</v>
+        <v>217.7502</v>
       </c>
       <c r="F13">
         <v>7678723.383665241</v>
       </c>
       <c r="G13">
-        <v>871626.4684057187</v>
+        <v>871626.4684057189</v>
       </c>
       <c r="H13">
-        <v>216541.96689837298</v>
+        <v>216541.966898373</v>
       </c>
       <c r="I13">
-        <v>15.269999999999998</v>
+        <v>15.270000000000003</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>140.64</v>
+        <v>140.64000000000004</v>
       </c>
       <c r="B14" t="str">
         <v>M.L</v>
@@ -771,24 +771,24 @@
         <v>PIPE, SEAMLESS, BE, SCH 80, B36.10, A106 GR B</v>
       </c>
       <c r="E14">
-        <v>3139.0848</v>
+        <v>3139.0848000000005</v>
       </c>
       <c r="F14">
-        <v>193415485.72757715</v>
+        <v>193415485.7275771</v>
       </c>
       <c r="G14">
-        <v>23148294.56840024</v>
+        <v>23148294.56840025</v>
       </c>
       <c r="H14">
-        <v>805614.0274296936</v>
+        <v>805614.0274296935</v>
       </c>
       <c r="I14">
-        <v>22.320000000000004</v>
+        <v>22.319999999999997</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>28.369999999999997</v>
+        <v>28.36999999999999</v>
       </c>
       <c r="B15" t="str">
         <v>M.L</v>
@@ -800,24 +800,24 @@
         <v>PIPE, SEAMLESS, PE, SCH 160, B36.10, A106 GR. B</v>
       </c>
       <c r="E15">
-        <v>55.32149999999999</v>
+        <v>55.321499999999986</v>
       </c>
       <c r="F15">
-        <v>2292426.3945440324</v>
+        <v>2292426.394544032</v>
       </c>
       <c r="G15">
-        <v>250738.372138371</v>
+        <v>250738.37213837105</v>
       </c>
       <c r="H15">
-        <v>18559.4649987825</v>
+        <v>18559.464998782503</v>
       </c>
       <c r="I15">
-        <v>1.95</v>
+        <v>1.9500000000000002</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>326.8799999999998</v>
+        <v>326.8799999999999</v>
       </c>
       <c r="B16" t="str">
         <v>M.L</v>
@@ -832,21 +832,21 @@
         <v>947.9519999999994</v>
       </c>
       <c r="F16">
-        <v>114600614.35147253</v>
+        <v>114600614.35147251</v>
       </c>
       <c r="G16">
-        <v>45861640.812698625</v>
+        <v>45861640.81269866</v>
       </c>
       <c r="H16">
-        <v>1565448.646177234</v>
+        <v>1565448.6461772353</v>
       </c>
       <c r="I16">
-        <v>2.9</v>
+        <v>2.8999999999999995</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>130.1</v>
+        <v>130.0999999999999</v>
       </c>
       <c r="B17" t="str">
         <v>M.L</v>
@@ -858,24 +858,24 @@
         <v>PIPE, SEAMLESS, PE, SCH 160, B36.10, A106 GR. B</v>
       </c>
       <c r="E17">
-        <v>551.624</v>
+        <v>551.6240000000001</v>
       </c>
       <c r="F17">
-        <v>36044966.765229255</v>
+        <v>36044966.76522924</v>
       </c>
       <c r="G17">
-        <v>9321414.868312113</v>
+        <v>9321414.868312107</v>
       </c>
       <c r="H17">
-        <v>148467.2830339392</v>
+        <v>148467.28303393925</v>
       </c>
       <c r="I17">
-        <v>4.24</v>
+        <v>4.240000000000004</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>160.5699999999999</v>
+        <v>160.56999999999996</v>
       </c>
       <c r="B18" t="str">
         <v>M.L</v>
@@ -890,16 +890,16 @@
         <v>1164.1325000000002</v>
       </c>
       <c r="F18">
-        <v>64210040.42163397</v>
+        <v>64210040.421633966</v>
       </c>
       <c r="G18">
-        <v>13972297.221023893</v>
+        <v>13972297.221023906</v>
       </c>
       <c r="H18">
-        <v>257777.6871088749</v>
+        <v>257777.68710887487</v>
       </c>
       <c r="I18">
-        <v>7.250000000000005</v>
+        <v>7.250000000000003</v>
       </c>
     </row>
     <row r="19">
@@ -1038,7 +1038,7 @@
         <v>199283.69940744003</v>
       </c>
       <c r="G23">
-        <v>23109.85459137</v>
+        <v>23109.854591370004</v>
       </c>
       <c r="H23">
         <v>5716.611193000001</v>
@@ -1212,7 +1212,7 @@
         <v>347776.67802278</v>
       </c>
       <c r="G29">
-        <v>84596.34720912</v>
+        <v>84596.34720911998</v>
       </c>
       <c r="H29">
         <v>1634.1032</v>
@@ -1241,7 +1241,7 @@
         <v>136802.20307699998</v>
       </c>
       <c r="G30">
-        <v>23867.458673999998</v>
+        <v>23867.458674</v>
       </c>
       <c r="H30">
         <v>4558.878318</v>
@@ -1354,13 +1354,13 @@
         <v>16.24</v>
       </c>
       <c r="F34">
-        <v>1088158.7286231897</v>
+        <v>1088158.7286231895</v>
       </c>
       <c r="G34">
-        <v>606789.58975271</v>
+        <v>606789.5897527098</v>
       </c>
       <c r="H34">
-        <v>16379.123459719995</v>
+        <v>16379.123459719998</v>
       </c>
       <c r="I34">
         <v>2.03</v>
@@ -1412,10 +1412,10 @@
         <v>81.60000000000001</v>
       </c>
       <c r="F36">
-        <v>8172552.855164999</v>
+        <v>8172552.855165</v>
       </c>
       <c r="G36">
-        <v>2656437.1663313997</v>
+        <v>2656437.1663314</v>
       </c>
       <c r="H36">
         <v>208483.0781328</v>
@@ -1470,10 +1470,10 @@
         <v>22</v>
       </c>
       <c r="F38">
-        <v>800041.3588970001</v>
+        <v>800041.3588969999</v>
       </c>
       <c r="G38">
-        <v>86319.34468849999</v>
+        <v>86319.3446885</v>
       </c>
       <c r="H38">
         <v>26924.7068805</v>
@@ -1502,10 +1502,10 @@
         <v>1871897.2564536</v>
       </c>
       <c r="G39">
-        <v>246632.0924934</v>
+        <v>246632.09249340004</v>
       </c>
       <c r="H39">
-        <v>28865.623066199998</v>
+        <v>28865.623066200005</v>
       </c>
       <c r="I39">
         <v>5.3999999999999995</v>
@@ -1531,10 +1531,10 @@
         <v>303942.88292181</v>
       </c>
       <c r="G40">
-        <v>111918.06103480996</v>
+        <v>111918.06103481</v>
       </c>
       <c r="H40">
-        <v>2093.75374393</v>
+        <v>2093.7537439300004</v>
       </c>
       <c r="I40">
         <v>0.18999999999999997</v>
@@ -1644,13 +1644,13 @@
         <v>1.9499999999999995</v>
       </c>
       <c r="F44">
-        <v>104299.38474479999</v>
+        <v>104299.3847448</v>
       </c>
       <c r="G44">
         <v>34885.26999315</v>
       </c>
       <c r="H44">
-        <v>1036.5582051</v>
+        <v>1036.5582051000001</v>
       </c>
       <c r="I44">
         <v>0.14999999999999997</v>
@@ -1673,10 +1673,10 @@
         <v>5.760000000000003</v>
       </c>
       <c r="F45">
-        <v>457113.43128071993</v>
+        <v>457113.43128072</v>
       </c>
       <c r="G45">
-        <v>148017.06983208</v>
+        <v>148017.06983208004</v>
       </c>
       <c r="H45">
         <v>5023.5255984</v>
@@ -1705,10 +1705,10 @@
         <v>531295.6766006</v>
       </c>
       <c r="G46">
-        <v>194056.71937400007</v>
+        <v>194056.71937400004</v>
       </c>
       <c r="H46">
-        <v>3812.720502280001</v>
+        <v>3812.72050228</v>
       </c>
       <c r="I46">
         <v>0.37999999999999995</v>
@@ -1734,7 +1734,7 @@
         <v>620809.54901856</v>
       </c>
       <c r="G47">
-        <v>118287.73844064</v>
+        <v>118287.73844064001</v>
       </c>
       <c r="H47">
         <v>5980.905363839998</v>
@@ -1745,28 +1745,28 @@
     </row>
     <row r="48">
       <c r="A48">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B48" t="str">
         <v>U.N</v>
       </c>
       <c r="C48" t="str">
-        <v>1"x1/2"x1"</v>
+        <v>1"x1/2"</v>
       </c>
       <c r="D48" t="str">
         <v>TEE RED, 3000#, NPT, B16.11, A-105</v>
       </c>
       <c r="E48">
-        <v>2.68</v>
+        <v>1.34</v>
       </c>
       <c r="F48">
-        <v>42843.32819923</v>
+        <v>5878.189829520001</v>
       </c>
       <c r="G48">
-        <v>32731.72805284</v>
+        <v>20936.92973218</v>
       </c>
       <c r="H48">
-        <v>377.07734000000005</v>
+        <v>188.53867000000002</v>
       </c>
       <c r="I48">
         <v>0.67</v>
@@ -1774,31 +1774,31 @@
     </row>
     <row r="49">
       <c r="A49">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B49" t="str">
         <v>U.N</v>
       </c>
       <c r="C49" t="str">
-        <v>3"x2"x3"</v>
+        <v>1"x1/2"x1"</v>
       </c>
       <c r="D49" t="str">
-        <v>TEE RED, BE, SCH 160, B16.9, A234 WPB</v>
+        <v>TEE RED, 3000#, NPT, B16.11, A-105</v>
       </c>
       <c r="E49">
-        <v>22</v>
+        <v>1.34</v>
       </c>
       <c r="F49">
-        <v>510020.877949</v>
+        <v>36965.13836971</v>
       </c>
       <c r="G49">
-        <v>87514.015138</v>
+        <v>11794.79832066</v>
       </c>
       <c r="H49">
-        <v>16715.887166</v>
+        <v>188.53867000000002</v>
       </c>
       <c r="I49">
-        <v>5.5</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="50">
@@ -1809,83 +1809,83 @@
         <v>U.N</v>
       </c>
       <c r="C50" t="str">
-        <v>4"x3"</v>
+        <v>3"x2"</v>
       </c>
       <c r="D50" t="str">
         <v>TEE RED, BE, SCH 160, B16.9, A234 WPB</v>
       </c>
       <c r="E50">
-        <v>31.8</v>
+        <v>11</v>
       </c>
       <c r="F50">
-        <v>737211.9963081001</v>
+        <v>255010.4389745</v>
       </c>
       <c r="G50">
-        <v>76514.81223780001</v>
+        <v>43757.007569</v>
       </c>
       <c r="H50">
-        <v>5712.870000000001</v>
+        <v>8357.943583</v>
       </c>
       <c r="I50">
-        <v>15.9</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B51" t="str">
         <v>U.N</v>
       </c>
       <c r="C51" t="str">
-        <v>4"x2"</v>
+        <v>3"x2"x3"</v>
       </c>
       <c r="D51" t="str">
-        <v>TEE RED, BW, SCH 80, B16.9, A234 WPB</v>
+        <v>TEE RED, BE, SCH 160, B16.9, A234 WPB</v>
       </c>
       <c r="E51">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="F51">
-        <v>2052471.5684900002</v>
+        <v>255010.4389745</v>
       </c>
       <c r="G51">
-        <v>237797.45659600006</v>
+        <v>43757.007569</v>
       </c>
       <c r="H51">
-        <v>11206.971999999998</v>
+        <v>8357.943583</v>
       </c>
       <c r="I51">
-        <v>7</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B52" t="str">
         <v>U.N</v>
       </c>
       <c r="C52" t="str">
-        <v>1 1/2"x3/4"</v>
+        <v>4"x3"</v>
       </c>
       <c r="D52" t="str">
-        <v>TEE RED, SW, 3000#, B16.11, A105</v>
+        <v>TEE RED, BE, SCH 160, B16.9, A234 WPB</v>
       </c>
       <c r="E52">
-        <v>14.849999999999998</v>
+        <v>31.8</v>
       </c>
       <c r="F52">
-        <v>700067.7258273</v>
+        <v>737211.9963081001</v>
       </c>
       <c r="G52">
-        <v>67270.34036115</v>
+        <v>76514.81223780001</v>
       </c>
       <c r="H52">
-        <v>1520.7075000000004</v>
+        <v>5712.870000000001</v>
       </c>
       <c r="I52">
-        <v>1.3499999999999999</v>
+        <v>15.9</v>
       </c>
     </row>
     <row r="53">
@@ -1896,25 +1896,25 @@
         <v>U.N</v>
       </c>
       <c r="C53" t="str">
-        <v>1/2"</v>
+        <v>4"x2"</v>
       </c>
       <c r="D53" t="str">
-        <v>TEE, 3000#, NPT, B16.11, A-105</v>
+        <v>TEE RED, BW, SCH 80, B16.9, A234 WPB</v>
       </c>
       <c r="E53">
-        <v>0.52</v>
+        <v>14</v>
       </c>
       <c r="F53">
-        <v>43488.98946028</v>
+        <v>1034233.6883060001</v>
       </c>
       <c r="G53">
-        <v>21909.26505742</v>
+        <v>190446.595808</v>
       </c>
       <c r="H53">
-        <v>70.02736</v>
+        <v>6134.772</v>
       </c>
       <c r="I53">
-        <v>0.26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54">
@@ -1925,25 +1925,25 @@
         <v>U.N</v>
       </c>
       <c r="C54" t="str">
-        <v>1"</v>
+        <v>4"x3"</v>
       </c>
       <c r="D54" t="str">
-        <v>TEE, 3000#, NPT, B16.11, A-105</v>
+        <v>TEE RED, BW, SCH 80, B16.9, A234 WPB</v>
       </c>
       <c r="E54">
-        <v>1.34</v>
+        <v>14</v>
       </c>
       <c r="F54">
-        <v>5976.780995500001</v>
+        <v>690234.264671</v>
       </c>
       <c r="G54">
-        <v>20936.92973218</v>
+        <v>23675.430394</v>
       </c>
       <c r="H54">
-        <v>188.53867000000002</v>
+        <v>2536.1</v>
       </c>
       <c r="I54">
-        <v>0.67</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55">
@@ -1954,141 +1954,141 @@
         <v>U.N</v>
       </c>
       <c r="C55" t="str">
-        <v>4"</v>
+        <v>4"x3"x4"</v>
       </c>
       <c r="D55" t="str">
-        <v>TEE, BE, SCH 160, B16.9, A234 WPB</v>
+        <v>TEE RED, BW, SCH 80, B16.9, A234 WPB</v>
       </c>
       <c r="E55">
-        <v>31.06</v>
+        <v>14</v>
       </c>
       <c r="F55">
-        <v>630597.99184635</v>
+        <v>328003.61551300006</v>
       </c>
       <c r="G55">
-        <v>74734.27887126</v>
+        <v>23675.430394</v>
       </c>
       <c r="H55">
-        <v>5626.519</v>
+        <v>2536.1</v>
       </c>
       <c r="I55">
-        <v>15.53</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B56" t="str">
         <v>U.N</v>
       </c>
       <c r="C56" t="str">
-        <v>4"</v>
+        <v>1 1/2"x1"</v>
       </c>
       <c r="D56" t="str">
-        <v>TEE, BE, SCH 80, B16.9, A234 WPB</v>
+        <v>TEE RED, SW, 3000#, B16.11, A105</v>
       </c>
       <c r="E56">
-        <v>25.32</v>
+        <v>1.35</v>
       </c>
       <c r="F56">
-        <v>1689358.97935284</v>
+        <v>66625.1887977</v>
       </c>
       <c r="G56">
-        <v>221902.06177119998</v>
+        <v>3206.8844986500003</v>
       </c>
       <c r="H56">
-        <v>4676.75592</v>
+        <v>199.9755</v>
       </c>
       <c r="I56">
-        <v>8.44</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B57" t="str">
         <v>U.N</v>
       </c>
       <c r="C57" t="str">
-        <v>2"</v>
+        <v>1 1/2"x1/2"</v>
       </c>
       <c r="D57" t="str">
-        <v>TEE, BW, SCH 40, B16.9, A234 WPB</v>
+        <v>TEE RED, SW, 3000#, B16.11, A105</v>
       </c>
       <c r="E57">
-        <v>9.399999999999999</v>
+        <v>5.4</v>
       </c>
       <c r="F57">
-        <v>663193.09558004</v>
+        <v>268574.29339320003</v>
       </c>
       <c r="G57">
-        <v>366491.42179567995</v>
+        <v>28543.8650004</v>
       </c>
       <c r="H57">
-        <v>1092.56482</v>
+        <v>460.39050000000003</v>
       </c>
       <c r="I57">
-        <v>1.8799999999999997</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B58" t="str">
         <v>U.N</v>
       </c>
       <c r="C58" t="str">
-        <v>3"</v>
+        <v>1 1/2"x1/2"x1 1/2"</v>
       </c>
       <c r="D58" t="str">
-        <v>TEE, BW, SCH 40, B16.9, A234 WPB</v>
+        <v>TEE RED, SW, 3000#, B16.11, A105</v>
       </c>
       <c r="E58">
-        <v>22.919999999999998</v>
+        <v>4.050000000000001</v>
       </c>
       <c r="F58">
-        <v>1894031.4337157197</v>
+        <v>229420.8380169</v>
       </c>
       <c r="G58">
-        <v>1153700.7227773</v>
+        <v>27081.002069550006</v>
       </c>
       <c r="H58">
-        <v>3938.419999999999</v>
+        <v>260.415</v>
       </c>
       <c r="I58">
-        <v>3.82</v>
+        <v>1.3500000000000003</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B59" t="str">
         <v>U.N</v>
       </c>
       <c r="C59" t="str">
-        <v>6"</v>
+        <v>1 1/2"x3/4"</v>
       </c>
       <c r="D59" t="str">
-        <v>TEE, BW, SCH 40, B16.9, A234 WPB</v>
+        <v>TEE RED, SW, 3000#, B16.11, A105</v>
       </c>
       <c r="E59">
-        <v>49.44</v>
+        <v>2.7</v>
       </c>
       <c r="F59">
-        <v>7557646.06499968</v>
+        <v>100470.4843527</v>
       </c>
       <c r="G59">
-        <v>2773902.04597088</v>
+        <v>5625.725861700001</v>
       </c>
       <c r="H59">
-        <v>127314.35668208002</v>
+        <v>399.951</v>
       </c>
       <c r="I59">
-        <v>16.48</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="60">
@@ -2099,30 +2099,30 @@
         <v>U.N</v>
       </c>
       <c r="C60" t="str">
-        <v>1 1/2"</v>
+        <v>1 1/2"x3/4"x1 1/2"</v>
       </c>
       <c r="D60" t="str">
-        <v>TEE, SW, 3000 #, B16.11, A105</v>
+        <v>TEE RED, SW, 3000#, B16.11, A105</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>34976.921266800004</v>
       </c>
       <c r="G60">
-        <v>0</v>
+        <v>2812.8629308500003</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>199.9755</v>
       </c>
       <c r="I60">
-        <v>0</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B61" t="str">
         <v>U.N</v>
@@ -2131,239 +2131,239 @@
         <v>1"</v>
       </c>
       <c r="D61" t="str">
-        <v>TEE, SW, 3000#, B16.11, A105</v>
+        <v>TEE, 3000#, NPT, B16.11, A-105</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>5976.780995500001</v>
       </c>
       <c r="G61">
-        <v>0</v>
+        <v>20936.92973218</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>188.53867000000002</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B62" t="str">
         <v>U.N</v>
       </c>
       <c r="C62" t="str">
-        <v>1 1/2"</v>
+        <v>1/2"</v>
       </c>
       <c r="D62" t="str">
-        <v>TEE, SW, 3000#, B16.11, A105</v>
+        <v>TEE, 3000#, NPT, B16.11, A-105</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>0.52</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>43488.98946028</v>
       </c>
       <c r="G62">
-        <v>0</v>
+        <v>21909.26505742</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>70.02736</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B63" t="str">
         <v>U.N</v>
       </c>
       <c r="C63" t="str">
-        <v>1"x1/2"</v>
+        <v>4"</v>
       </c>
       <c r="D63" t="str">
-        <v>COUPLING, RED, SW, #3000, B16.11, A105</v>
+        <v>TEE, BE, SCH 160, B16.9, A234 WPB</v>
       </c>
       <c r="E63">
-        <v>0.63</v>
+        <v>31.06</v>
       </c>
       <c r="F63">
-        <v>33919.56363621</v>
+        <v>630597.99184635</v>
       </c>
       <c r="G63">
-        <v>3632.69387649</v>
+        <v>74734.27887126</v>
       </c>
       <c r="H63">
-        <v>215.3865231</v>
+        <v>5626.519</v>
       </c>
       <c r="I63">
-        <v>0.21</v>
+        <v>15.53</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B64" t="str">
         <v>U.N</v>
       </c>
       <c r="C64" t="str">
-        <v>1 1/2"x1"</v>
+        <v>4"</v>
       </c>
       <c r="D64" t="str">
-        <v>COUPLING, RED, SW, #3000, B16.11, A105</v>
+        <v>TEE, BE, SCH 80, B16.9, A234 WPB</v>
       </c>
       <c r="E64">
-        <v>0.6</v>
+        <v>25.32</v>
       </c>
       <c r="F64">
-        <v>50120.8032234</v>
+        <v>1689358.97935284</v>
       </c>
       <c r="G64">
-        <v>32830.5605892</v>
+        <v>221902.06177119998</v>
       </c>
       <c r="H64">
-        <v>88.878</v>
+        <v>4676.75592</v>
       </c>
       <c r="I64">
-        <v>0.6</v>
+        <v>8.44</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B65" t="str">
         <v>U.N</v>
       </c>
       <c r="C65" t="str">
-        <v>2"x1"</v>
+        <v>2"</v>
       </c>
       <c r="D65" t="str">
-        <v>RED CONC, BW, SCH 160, B16.9, A234 WPB</v>
+        <v>TEE, BW, SCH 40, B16.9, A234 WPB</v>
       </c>
       <c r="E65">
-        <v>3.36</v>
+        <v>9.399999999999999</v>
       </c>
       <c r="F65">
-        <v>232382.67415944</v>
+        <v>663193.09558004</v>
       </c>
       <c r="G65">
-        <v>112287.95504304</v>
+        <v>366491.42179567995</v>
       </c>
       <c r="H65">
-        <v>994.30296</v>
+        <v>1092.56482</v>
       </c>
       <c r="I65">
-        <v>0.84</v>
+        <v>1.8799999999999997</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B66" t="str">
         <v>U.N</v>
       </c>
       <c r="C66" t="str">
-        <v>3"x2 1/2"</v>
+        <v>3"</v>
       </c>
       <c r="D66" t="str">
-        <v>RED CONC, BW, SCH 160, B16.9, A234 WPB</v>
+        <v>TEE, BW, SCH 40, B16.9, A234 WPB</v>
       </c>
       <c r="E66">
-        <v>3.78</v>
+        <v>22.919999999999998</v>
       </c>
       <c r="F66">
-        <v>87630.85993851</v>
+        <v>1894031.4337157197</v>
       </c>
       <c r="G66">
-        <v>22102.32918852</v>
+        <v>1153700.7227772998</v>
       </c>
       <c r="H66">
-        <v>2872.09334034</v>
+        <v>3938.4199999999996</v>
       </c>
       <c r="I66">
-        <v>1.89</v>
+        <v>3.82</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B67" t="str">
         <v>U.N</v>
       </c>
       <c r="C67" t="str">
-        <v>3"x2"</v>
+        <v>6"</v>
       </c>
       <c r="D67" t="str">
-        <v>RED CONC, BW, SCH 40, B16.9, A234 WPB</v>
+        <v>TEE, BW, SCH 40, B16.9, A234 WPB</v>
       </c>
       <c r="E67">
-        <v>2</v>
+        <v>49.44</v>
       </c>
       <c r="F67">
-        <v>37955.704451</v>
+        <v>7557646.064999681</v>
       </c>
       <c r="G67">
-        <v>4261.153622</v>
+        <v>2773902.0459708804</v>
       </c>
       <c r="H67">
-        <v>4415.14787</v>
+        <v>127314.35668208</v>
       </c>
       <c r="I67">
-        <v>1</v>
+        <v>16.48</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B68" t="str">
         <v>U.N</v>
       </c>
       <c r="C68" t="str">
-        <v>4"x3"</v>
+        <v>1 1/2"</v>
       </c>
       <c r="D68" t="str">
-        <v>RED CONC, BW, SCH 40, B16.9, A234 WPB</v>
+        <v>TEE, SW, 3000 #, B16.11, A105</v>
       </c>
       <c r="E68">
-        <v>6.4</v>
+        <v>0</v>
       </c>
       <c r="F68">
-        <v>531035.9888576</v>
+        <v>0</v>
       </c>
       <c r="G68">
-        <v>290142.59589920007</v>
+        <v>0</v>
       </c>
       <c r="H68">
-        <v>5273.6</v>
+        <v>0</v>
       </c>
       <c r="I68">
-        <v>1.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B69" t="str">
         <v>U.N</v>
       </c>
       <c r="C69" t="str">
-        <v>3"x1 1/2"</v>
+        <v>1 1/2"</v>
       </c>
       <c r="D69" t="str">
-        <v>RED ECC, BW, SCH 40, B16.9, A234 WPB</v>
+        <v>TEE, SW, 3000#, B16.11, A105</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -2383,16 +2383,16 @@
     </row>
     <row r="70">
       <c r="A70">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B70" t="str">
         <v>U.N</v>
       </c>
       <c r="C70" t="str">
-        <v>6"x3"</v>
+        <v>1"</v>
       </c>
       <c r="D70" t="str">
-        <v xml:space="preserve">LATROLET, BW, SCH 40 </v>
+        <v>TEE, SW, 3000#, B16.11, A105</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -2418,83 +2418,83 @@
         <v>U.N</v>
       </c>
       <c r="C71" t="str">
-        <v>6"x1/2"</v>
+        <v>1 1/2"x1"</v>
       </c>
       <c r="D71" t="str">
-        <v>LATROLET, SW, 3000#</v>
+        <v>COUPLING, RED, SW, #3000, B16.11, A105</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F71">
-        <v>0</v>
+        <v>50120.8032234</v>
       </c>
       <c r="G71">
-        <v>0</v>
+        <v>32830.5605892</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>88.878</v>
       </c>
       <c r="I71">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B72" t="str">
         <v>U.N</v>
       </c>
       <c r="C72" t="str">
-        <v>2"x1"</v>
+        <v>1"x1/2"</v>
       </c>
       <c r="D72" t="str">
-        <v>SOCKOLET, #3000, B16.11, A105</v>
+        <v>COUPLING, RED, SW, #3000, B16.11, A105</v>
       </c>
       <c r="E72">
-        <v>1.95</v>
+        <v>0.63</v>
       </c>
       <c r="F72">
-        <v>137509.26758007</v>
+        <v>33919.56363621</v>
       </c>
       <c r="G72">
-        <v>72558.19323042</v>
+        <v>3632.69387649</v>
       </c>
       <c r="H72">
-        <v>601.889115</v>
+        <v>215.3865231</v>
       </c>
       <c r="I72">
-        <v>0.21666666666666667</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B73" t="str">
         <v>U.N</v>
       </c>
       <c r="C73" t="str">
-        <v>3"x1/2"</v>
+        <v>2"x1 1/2"</v>
       </c>
       <c r="D73" t="str">
-        <v>SOCKOLET, #3000, B16.11, A105</v>
+        <v>RED CONC, BW, SCH 160, B16.9, A234 WPB</v>
       </c>
       <c r="E73">
-        <v>0.15</v>
+        <v>1.68</v>
       </c>
       <c r="F73">
-        <v>12339.102255749998</v>
+        <v>93428.68689504001</v>
       </c>
       <c r="G73">
-        <v>9125.75819505</v>
+        <v>10953.60085848</v>
       </c>
       <c r="H73">
-        <v>26.79</v>
+        <v>108.02399999999999</v>
       </c>
       <c r="I73">
-        <v>0.15</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="74">
@@ -2505,431 +2505,431 @@
         <v>U.N</v>
       </c>
       <c r="C74" t="str">
-        <v>4"x1/2"</v>
+        <v>2"x1"</v>
       </c>
       <c r="D74" t="str">
-        <v>SOCKOLET, #3000, B16.11, A105</v>
+        <v>RED CONC, BW, SCH 160, B16.9, A234 WPB</v>
       </c>
       <c r="E74">
-        <v>0.3</v>
+        <v>1.68</v>
       </c>
       <c r="F74">
-        <v>17184.9225669</v>
+        <v>138953.9872644</v>
       </c>
       <c r="G74">
-        <v>2674.978296</v>
+        <v>101334.35418456</v>
       </c>
       <c r="H74">
-        <v>315.4663212</v>
+        <v>886.27896</v>
       </c>
       <c r="I74">
-        <v>0.15</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B75" t="str">
         <v>U.N</v>
       </c>
       <c r="C75" t="str">
-        <v>4"x1/2"</v>
+        <v>3"x2 1/2"</v>
       </c>
       <c r="D75" t="str">
-        <v>SOCKOLET, #6000, B16.11, A105</v>
+        <v>RED CONC, BW, SCH 160, B16.9, A234 WPB</v>
       </c>
       <c r="E75">
-        <v>1.3599999999999999</v>
+        <v>3.78</v>
       </c>
       <c r="F75">
-        <v>23836.70001778</v>
+        <v>87630.85993851</v>
       </c>
       <c r="G75">
-        <v>3308.5960425599997</v>
+        <v>22102.32918852</v>
       </c>
       <c r="H75">
-        <v>244.87062639</v>
+        <v>2872.09334034</v>
       </c>
       <c r="I75">
-        <v>0.33999999999999997</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B76" t="str">
         <v>U.N</v>
       </c>
       <c r="C76" t="str">
-        <v>2"x1/2"</v>
+        <v>3"x2"</v>
       </c>
       <c r="D76" t="str">
-        <v>THREADOLET, 3000#, MSS SP-97</v>
+        <v>RED CONC, BW, SCH 40, B16.9, A234 WPB</v>
       </c>
       <c r="E76">
-        <v>0.44</v>
+        <v>2</v>
       </c>
       <c r="F76">
-        <v>30243.809959880004</v>
+        <v>37955.704451</v>
       </c>
       <c r="G76">
-        <v>14762.89805078</v>
+        <v>4261.153622</v>
       </c>
       <c r="H76">
-        <v>146.97034</v>
+        <v>4415.14787</v>
       </c>
       <c r="I76">
-        <v>0.11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B77" t="str">
         <v>U.N</v>
       </c>
       <c r="C77" t="str">
-        <v>3"x3/4"</v>
+        <v>4"x3"</v>
       </c>
       <c r="D77" t="str">
-        <v>THREADOLET, 3000#, MSS SP-97</v>
+        <v>RED CONC, BW, SCH 40, B16.9, A234 WPB</v>
       </c>
       <c r="E77">
-        <v>0.65</v>
+        <v>6.4</v>
       </c>
       <c r="F77">
-        <v>34643.25046009</v>
+        <v>531035.9888576</v>
       </c>
       <c r="G77">
-        <v>21083.92688511</v>
+        <v>290142.5958992</v>
       </c>
       <c r="H77">
-        <v>302.07817696</v>
+        <v>5273.6</v>
       </c>
       <c r="I77">
-        <v>0.13</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B78" t="str">
         <v>U.N</v>
       </c>
       <c r="C78" t="str">
-        <v>4"x1/2"</v>
+        <v>3"x1 1/2"</v>
       </c>
       <c r="D78" t="str">
-        <v>THREADOLET, 3000#, MSS SP-97</v>
+        <v>RED ECC, BW, SCH 40, B16.9, A234 WPB</v>
       </c>
       <c r="E78">
-        <v>2.59</v>
+        <v>0</v>
       </c>
       <c r="F78">
-        <v>151950.92971707002</v>
+        <v>0</v>
       </c>
       <c r="G78">
-        <v>24125.060758240004</v>
+        <v>0</v>
       </c>
       <c r="H78">
-        <v>2568.9719475800002</v>
+        <v>0</v>
       </c>
       <c r="I78">
-        <v>0.518</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B79" t="str">
         <v>U.N</v>
       </c>
       <c r="C79" t="str">
-        <v>6"x1/2"</v>
+        <v>6"x1"</v>
       </c>
       <c r="D79" t="str">
-        <v>THREADOLET, 3000#, MSS SP-97</v>
+        <v xml:space="preserve">LATROLET, BW, SCH 40 </v>
       </c>
       <c r="E79">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="F79">
-        <v>38074.792194990005</v>
+        <v>0</v>
       </c>
       <c r="G79">
-        <v>12032.29639421</v>
+        <v>0</v>
       </c>
       <c r="H79">
-        <v>1004.7096238800001</v>
+        <v>0</v>
       </c>
       <c r="I79">
-        <v>0.195</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B80" t="str">
         <v>U.N</v>
       </c>
       <c r="C80" t="str">
-        <v>6"x1/2"</v>
+        <v>6"x3"</v>
       </c>
       <c r="D80" t="str">
-        <v>THREADOLET, 3000#, NPT, MSS-SP-97, A-105</v>
+        <v xml:space="preserve">LATROLET, BW, SCH 40 </v>
       </c>
       <c r="E80">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F80">
-        <v>20093.474042</v>
+        <v>0</v>
       </c>
       <c r="G80">
-        <v>8315.4281178</v>
+        <v>0</v>
       </c>
       <c r="H80">
-        <v>288.1240139</v>
+        <v>0</v>
       </c>
       <c r="I80">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B81" t="str">
         <v>U.N</v>
       </c>
       <c r="C81" t="str">
-        <v>3"x1/2"</v>
+        <v>6"x4"</v>
       </c>
       <c r="D81" t="str">
-        <v>THREADOLET, 6000#, MSS SP-97</v>
+        <v xml:space="preserve">LATROLET, BW, SCH 40 </v>
       </c>
       <c r="E81">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="F81">
-        <v>10254.55130898</v>
+        <v>0</v>
       </c>
       <c r="G81">
-        <v>2388.40647067</v>
+        <v>0</v>
       </c>
       <c r="H81">
-        <v>334.31774332</v>
+        <v>0</v>
       </c>
       <c r="I81">
-        <v>0.11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B82" t="str">
         <v>U.N</v>
       </c>
       <c r="C82" t="str">
-        <v>4"x3/4"</v>
+        <v>6"x1/2"</v>
       </c>
       <c r="D82" t="str">
-        <v>THREADOLET, 6000#, MSS SP-97</v>
+        <v>LATROLET, SW, 3000#</v>
       </c>
       <c r="E82">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F82">
-        <v>11156.57691956</v>
+        <v>0</v>
       </c>
       <c r="G82">
-        <v>1423.1118626</v>
+        <v>0</v>
       </c>
       <c r="H82">
-        <v>108.27668419</v>
+        <v>0</v>
       </c>
       <c r="I82">
-        <v>0.12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B83" t="str">
         <v>U.N</v>
       </c>
       <c r="C83" t="str">
-        <v>4"x2"</v>
+        <v>2"x1"</v>
       </c>
       <c r="D83" t="str">
-        <v>WELDOLET, BW, SCH 40, MSS-SP-97, A105</v>
+        <v>SOCKOLET, #3000, B16.11, A105</v>
       </c>
       <c r="E83">
-        <v>1.58</v>
+        <v>1.35</v>
       </c>
       <c r="F83">
-        <v>90507.25885234</v>
+        <v>96251.39117217001</v>
       </c>
       <c r="G83">
-        <v>14088.219025600001</v>
+        <v>52426.968615720005</v>
       </c>
       <c r="H83">
-        <v>1661.4559583200003</v>
+        <v>401.475015</v>
       </c>
       <c r="I83">
-        <v>0.79</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B84" t="str">
         <v>U.N</v>
       </c>
       <c r="C84" t="str">
-        <v>1/2"</v>
+        <v>2"x1/2"</v>
       </c>
       <c r="D84" t="str">
-        <v>UNION, 3000#, NPT, MSS-SP-83, A105</v>
+        <v>SOCKOLET, #3000, B16.11, A105</v>
       </c>
       <c r="E84">
-        <v>4.8000000000000025</v>
+        <v>0.6</v>
       </c>
       <c r="F84">
-        <v>688690.0944482399</v>
+        <v>41257.876407899996</v>
       </c>
       <c r="G84">
-        <v>304509.99539184006</v>
+        <v>20131.224614699997</v>
       </c>
       <c r="H84">
-        <v>12817.399003679999</v>
+        <v>200.41409999999996</v>
       </c>
       <c r="I84">
-        <v>0.24000000000000013</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B85" t="str">
         <v>U.N</v>
       </c>
       <c r="C85" t="str">
-        <v>1"</v>
+        <v>3"x1/2"</v>
       </c>
       <c r="D85" t="str">
-        <v>UNION, 3000#, NPT, MSS-SP-83, A105</v>
+        <v>SOCKOLET, #3000, B16.11, A105</v>
       </c>
       <c r="E85">
-        <v>3.68</v>
+        <v>0.15</v>
       </c>
       <c r="F85">
-        <v>105210.6534832</v>
+        <v>12339.102255749998</v>
       </c>
       <c r="G85">
-        <v>7284.935989279999</v>
+        <v>9125.75819505</v>
       </c>
       <c r="H85">
-        <v>517.7778400000001</v>
+        <v>26.79</v>
       </c>
       <c r="I85">
-        <v>0.46</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B86" t="str">
         <v>U.N</v>
       </c>
       <c r="C86" t="str">
-        <v>3/4"</v>
+        <v>4"x1/2"</v>
       </c>
       <c r="D86" t="str">
-        <v>UNION, 3000#, SW, MSS-SP-83, A105</v>
+        <v>SOCKOLET, #3000, B16.11, A105</v>
       </c>
       <c r="E86">
-        <v>3.3</v>
+        <v>0.3</v>
       </c>
       <c r="F86">
-        <v>400946.36210860003</v>
+        <v>17184.9225669</v>
       </c>
       <c r="G86">
-        <v>169210.62375305002</v>
+        <v>2674.978296</v>
       </c>
       <c r="H86">
-        <v>2930.9809644500006</v>
+        <v>315.4663212</v>
       </c>
       <c r="I86">
-        <v>0.5499999999999999</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B87" t="str">
         <v>U.N</v>
       </c>
       <c r="C87" t="str">
-        <v>1"</v>
+        <v>4"x1 1/2"</v>
       </c>
       <c r="D87" t="str">
-        <v>UNION, 3000#, SW, MSS-SP-83, A105</v>
+        <v>SOCKOLET, #6000, B16.11, A105</v>
       </c>
       <c r="E87">
-        <v>3.9000000000000004</v>
+        <v>0.94</v>
       </c>
       <c r="F87">
-        <v>251676.81532734004</v>
+        <v>17839.25347291</v>
       </c>
       <c r="G87">
-        <v>107653.52813046</v>
+        <v>2261.7586007399996</v>
       </c>
       <c r="H87">
-        <v>1741.8524058000003</v>
+        <v>169.19604918</v>
       </c>
       <c r="I87">
-        <v>0.78</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B88" t="str">
         <v>U.N</v>
       </c>
       <c r="C88" t="str">
-        <v>1 1/2"</v>
+        <v>4"x1"</v>
       </c>
       <c r="D88" t="str">
-        <v>UNION, 3000#, SW, MSS-SP-83, A105</v>
+        <v>SOCKOLET, #6000, B16.11, A105</v>
       </c>
       <c r="E88">
-        <v>6.4</v>
+        <v>0.27</v>
       </c>
       <c r="F88">
-        <v>358499.46814720007</v>
+        <v>3448.64462922</v>
       </c>
       <c r="G88">
-        <v>41728.003270400004</v>
+        <v>705.1971161700001</v>
       </c>
       <c r="H88">
-        <v>411.52</v>
+        <v>48.512719260000004</v>
       </c>
       <c r="I88">
-        <v>1.6</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="89">
@@ -2940,83 +2940,83 @@
         <v>U.N</v>
       </c>
       <c r="C89" t="str">
-        <v>1/2"</v>
+        <v>4"x1/2"</v>
       </c>
       <c r="D89" t="str">
-        <v>UNION, SW, 6000#, MSS-SP-83, A105</v>
+        <v>SOCKOLET, #6000, B16.11, A105</v>
       </c>
       <c r="E89">
-        <v>0.35</v>
+        <v>0.15</v>
       </c>
       <c r="F89">
-        <v>5947.2099687</v>
+        <v>2548.80191565</v>
       </c>
       <c r="G89">
-        <v>797.16075985</v>
+        <v>341.64032564999997</v>
       </c>
       <c r="H89">
-        <v>123.45466735</v>
+        <v>27.161857949999998</v>
       </c>
       <c r="I89">
-        <v>0.35</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B90" t="str">
         <v>U.N</v>
       </c>
       <c r="C90" t="str">
-        <v>4"</v>
+        <v>2"x1/2"</v>
       </c>
       <c r="D90" t="str">
-        <v>CAP, BW, SCH 40, B16.9, A234 WPB</v>
+        <v>THREADOLET, 3000#, MSS SP-97</v>
       </c>
       <c r="E90">
-        <v>3.2</v>
+        <v>0.44</v>
       </c>
       <c r="F90">
-        <v>183305.84071360002</v>
+        <v>30243.809959880004</v>
       </c>
       <c r="G90">
-        <v>28533.101824</v>
+        <v>14762.89805078</v>
       </c>
       <c r="H90">
-        <v>3364.9740928</v>
+        <v>146.97033999999996</v>
       </c>
       <c r="I90">
-        <v>1.6</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B91" t="str">
         <v>U.N</v>
       </c>
       <c r="C91" t="str">
-        <v>1"</v>
+        <v>3"x1/2"</v>
       </c>
       <c r="D91" t="str">
-        <v>CAP, SW, 3000#, B16.11, A105</v>
+        <v>THREADOLET, 3000#, MSS SP-97</v>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="F91">
-        <v>0</v>
+        <v>27146.024962649997</v>
       </c>
       <c r="G91">
-        <v>0</v>
+        <v>19856.66802911</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>58.938</v>
       </c>
       <c r="I91">
-        <v>0</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="92">
@@ -3027,25 +3027,25 @@
         <v>U.N</v>
       </c>
       <c r="C92" t="str">
-        <v>1 1/2"</v>
+        <v>3"x3/4"</v>
       </c>
       <c r="D92" t="str">
-        <v>CAP, SW, 3000#, B16.11, A105</v>
+        <v>THREADOLET, 3000#, MSS SP-97</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>7497.22549744</v>
       </c>
       <c r="G92">
-        <v>0</v>
+        <v>1227.258856</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>243.14017696</v>
       </c>
       <c r="I92">
-        <v>0</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="93">
@@ -3056,54 +3056,54 @@
         <v>U.N</v>
       </c>
       <c r="C93" t="str">
-        <v>4"</v>
+        <v>4"x1/2"</v>
       </c>
       <c r="D93" t="str">
-        <v>CONTROL VALVE, GLOBE, 600 LB, RF, ISA S75.03</v>
+        <v>THREADOLET, 3000#, MSS SP-97</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>16190.041438560002</v>
       </c>
       <c r="G93">
-        <v>0</v>
+        <v>2992.73221984</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>96.40356</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B94" t="str">
         <v>U.N</v>
       </c>
       <c r="C94" t="str">
-        <v>3"</v>
+        <v>4"x2"</v>
       </c>
       <c r="D94" t="str">
-        <v>CONTROL VALVE, GLOBE, LONG PATTERN, 900 LB, RTJ, ISA 75.08.06</v>
+        <v>THREADOLET, 3000#, MSS SP-97</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>2.37</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>135760.88827851</v>
       </c>
       <c r="G94">
-        <v>0</v>
+        <v>21132.3285384</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2472.56838758</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="95">
@@ -3114,344 +3114,344 @@
         <v>U.N</v>
       </c>
       <c r="C95" t="str">
-        <v>3/4"</v>
+        <v>6"x1"</v>
       </c>
       <c r="D95" t="str">
-        <v>CONTROL VALVE, GLOBE, SHORT PATTERN, 150 LB, FPT, ISA S75.12</v>
+        <v>THREADOLET, 3000#, MSS SP-97</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>0.28</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>15905.259520360001</v>
       </c>
       <c r="G95">
-        <v>0</v>
+        <v>2818.6142362</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>687.5766587200001</v>
       </c>
       <c r="I95">
-        <v>0</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="B96" t="str">
         <v>U.N</v>
       </c>
       <c r="C96" t="str">
-        <v>1/2"</v>
+        <v>6"x1/2"</v>
       </c>
       <c r="D96" t="str">
-        <v>COUPLING, 3000 #, NPT, B16.11, A-105</v>
+        <v>THREADOLET, 3000#, MSS SP-97</v>
       </c>
       <c r="E96">
-        <v>3.220000000000002</v>
+        <v>0.11</v>
       </c>
       <c r="F96">
-        <v>248538.13448085997</v>
+        <v>22169.53267463</v>
       </c>
       <c r="G96">
-        <v>64620.46182521999</v>
+        <v>9213.68215801</v>
       </c>
       <c r="H96">
-        <v>432.1374400000001</v>
+        <v>317.13296516</v>
       </c>
       <c r="I96">
-        <v>0.1400000000000001</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B97" t="str">
         <v>U.N</v>
       </c>
       <c r="C97" t="str">
-        <v>3/4"</v>
+        <v>6"x1/2"</v>
       </c>
       <c r="D97" t="str">
-        <v>COUPLING, 3000 #, NPT, B16.11, A-105</v>
+        <v>THREADOLET, 3000#, NPT, MSS-SP-97, A-105</v>
       </c>
       <c r="E97">
-        <v>0.84</v>
+        <v>0.1</v>
       </c>
       <c r="F97">
-        <v>159148.29984396</v>
+        <v>20093.474042</v>
       </c>
       <c r="G97">
-        <v>60506.55389352</v>
+        <v>8315.4281178</v>
       </c>
       <c r="H97">
-        <v>2331.92928507</v>
+        <v>288.1240139</v>
       </c>
       <c r="I97">
-        <v>0.21</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B98" t="str">
         <v>U.N</v>
       </c>
       <c r="C98" t="str">
-        <v>1/2"</v>
+        <v>3"x1/2"</v>
       </c>
       <c r="D98" t="str">
-        <v>COUPLING, SW, 6000#, B16.11, A105</v>
+        <v>THREADOLET, 6000#, MSS SP-97</v>
       </c>
       <c r="E98">
-        <v>0.39</v>
+        <v>0.44</v>
       </c>
       <c r="F98">
-        <v>14838.63689685</v>
+        <v>10254.55130898</v>
       </c>
       <c r="G98">
-        <v>850.82484669</v>
+        <v>2388.40647067</v>
       </c>
       <c r="H98">
-        <v>52.520520000000005</v>
+        <v>334.31774332</v>
       </c>
       <c r="I98">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="B99" t="str">
         <v>U.N</v>
       </c>
       <c r="C99" t="str">
-        <v>3/4"</v>
+        <v>4"x1/2"</v>
       </c>
       <c r="D99" t="str">
-        <v>COUPLING, SW, 6000#, B16.11, A105</v>
+        <v>THREADOLET, 6000#, MSS SP-97</v>
       </c>
       <c r="E99">
-        <v>9.030000000000001</v>
+        <v>0.44</v>
       </c>
       <c r="F99">
-        <v>1165448.2535528701</v>
+        <v>8468.36341956</v>
       </c>
       <c r="G99">
-        <v>477976.06770647987</v>
+        <v>1058.69551524</v>
       </c>
       <c r="H99">
-        <v>15840.455268120002</v>
+        <v>79.31014179</v>
       </c>
       <c r="I99">
-        <v>0.2006666666666667</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B100" t="str">
         <v>U.N</v>
       </c>
       <c r="C100" t="str">
-        <v>1"</v>
+        <v>4"x3/4"</v>
       </c>
       <c r="D100" t="str">
-        <v>COUPLING, SW, 6000#, B16.11, A105</v>
+        <v>THREADOLET, 6000#, MSS SP-97</v>
       </c>
       <c r="E100">
-        <v>4.419999999999999</v>
+        <v>0.16</v>
       </c>
       <c r="F100">
-        <v>296015.0403681401</v>
+        <v>2688.2135</v>
       </c>
       <c r="G100">
-        <v>56870.78707437998</v>
+        <v>364.41634736000003</v>
       </c>
       <c r="H100">
-        <v>621.89621</v>
+        <v>28.966542399999998</v>
       </c>
       <c r="I100">
-        <v>0.3399999999999999</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B101" t="str">
         <v>U.N</v>
       </c>
       <c r="C101" t="str">
-        <v>1 1/2"</v>
+        <v>4"x2"</v>
       </c>
       <c r="D101" t="str">
-        <v>COUPLING, SW, 6000#, B16.11, A105</v>
+        <v>WELDOLET, BW, SCH 40, MSS-SP-97, A105</v>
       </c>
       <c r="E101">
-        <v>13.759999999999998</v>
+        <v>1.58</v>
       </c>
       <c r="F101">
-        <v>774113.6030923398</v>
+        <v>90507.25885234</v>
       </c>
       <c r="G101">
-        <v>144959.19156311997</v>
+        <v>14088.219025600001</v>
       </c>
       <c r="H101">
-        <v>2038.268799999999</v>
+        <v>1661.4559583200003</v>
       </c>
       <c r="I101">
-        <v>0.8599999999999999</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="102">
       <c r="A102">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B102" t="str">
         <v>U.N</v>
       </c>
       <c r="C102" t="str">
-        <v>6"</v>
+        <v>1/2"</v>
       </c>
       <c r="D102" t="str">
-        <v>LATERAL 45�, BW, B16.9</v>
+        <v>UNION, 3000#, NPT, MSS-SP-83, A105</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>4.8000000000000025</v>
       </c>
       <c r="F102">
-        <v>0</v>
+        <v>688690.09444824</v>
       </c>
       <c r="G102">
-        <v>0</v>
+        <v>304509.99539184006</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>12817.39900368</v>
       </c>
       <c r="I102">
-        <v>0</v>
+        <v>0.24000000000000013</v>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B103" t="str">
         <v>U.N</v>
       </c>
       <c r="C103" t="str">
-        <v>4"</v>
+        <v>1"</v>
       </c>
       <c r="D103" t="str">
-        <v>ORIFICE PLATE, 900 LB, RTJ, ASME B16.48</v>
+        <v>UNION, 3000#, NPT, MSS-SP-83, A105</v>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>3.68</v>
       </c>
       <c r="F103">
-        <v>0</v>
+        <v>105210.6534832</v>
       </c>
       <c r="G103">
-        <v>0</v>
+        <v>7284.935989279999</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>517.7778400000001</v>
       </c>
       <c r="I103">
-        <v>0</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B104" t="str">
         <v>U.N</v>
       </c>
       <c r="C104" t="str">
-        <v>4"x1/2"</v>
+        <v>3/4"</v>
       </c>
       <c r="D104" t="str">
-        <v>ORIFICE WN, RTJ, #900, SCH 160, B16.36, A105</v>
+        <v>UNION, 3000#, SW, MSS-SP-83, A105</v>
       </c>
       <c r="E104">
-        <v>44</v>
+        <v>3.3</v>
       </c>
       <c r="F104">
-        <v>662676.3867019999</v>
+        <v>400946.36210860003</v>
       </c>
       <c r="G104">
-        <v>100214.495524</v>
+        <v>169210.62375305002</v>
       </c>
       <c r="H104">
-        <v>7949.097750000001</v>
+        <v>2930.98096445</v>
       </c>
       <c r="I104">
-        <v>22</v>
+        <v>0.5499999999999999</v>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B105" t="str">
         <v>U.N</v>
       </c>
       <c r="C105" t="str">
-        <v>1/2"</v>
+        <v>1"</v>
       </c>
       <c r="D105" t="str">
-        <v>PLUG, HEX HEAD, NPT, 3000#, B16.11, A105</v>
+        <v>UNION, 3000#, SW, MSS-SP-83, A105</v>
       </c>
       <c r="E105">
-        <v>0.7700000000000002</v>
+        <v>3.9000000000000004</v>
       </c>
       <c r="F105">
-        <v>52559.42553939001</v>
+        <v>251676.81532734004</v>
       </c>
       <c r="G105">
-        <v>23113.179506410004</v>
+        <v>107653.52813046002</v>
       </c>
       <c r="H105">
-        <v>220.32582656000002</v>
+        <v>1741.8524058</v>
       </c>
       <c r="I105">
-        <v>0.07000000000000002</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B106" t="str">
         <v>U.N</v>
       </c>
       <c r="C106" t="str">
-        <v>1"</v>
+        <v>1 1/2"</v>
       </c>
       <c r="D106" t="str">
-        <v>PLUG, HEX HEAD, NPT, 3000#, B16.11, A105</v>
+        <v>UNION, 3000#, SW, MSS-SP-83, A105</v>
       </c>
       <c r="E106">
-        <v>0.42</v>
+        <v>6.4</v>
       </c>
       <c r="F106">
-        <v>11986.043099940001</v>
+        <v>358499.46814720007</v>
       </c>
       <c r="G106">
-        <v>3696.87708558</v>
+        <v>41728.003270400004</v>
       </c>
       <c r="H106">
-        <v>59.09421</v>
+        <v>411.52</v>
       </c>
       <c r="I106">
-        <v>0.21</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="107">
@@ -3462,25 +3462,25 @@
         <v>U.N</v>
       </c>
       <c r="C107" t="str">
-        <v>1 1/2"</v>
+        <v>1/2"</v>
       </c>
       <c r="D107" t="str">
-        <v>PLUG, HEX HEAD, NPT, 3000#, B16.11, A105</v>
+        <v>UNION, SW, 6000#, MSS-SP-83, A105</v>
       </c>
       <c r="E107">
-        <v>0.57</v>
+        <v>0.35</v>
       </c>
       <c r="F107">
-        <v>970.2399323999999</v>
+        <v>5947.2099687</v>
       </c>
       <c r="G107">
-        <v>4091.454722369999</v>
+        <v>797.16075985</v>
       </c>
       <c r="H107">
-        <v>84.43409999999999</v>
+        <v>123.45466735</v>
       </c>
       <c r="I107">
-        <v>0.57</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="108">
@@ -3491,233 +3491,233 @@
         <v>U.N</v>
       </c>
       <c r="C108" t="str">
-        <v>3"</v>
+        <v>4"</v>
       </c>
       <c r="D108" t="str">
-        <v>Y-TYPE STRAINER, RF, #150, B16.10, A216 GR WCB</v>
+        <v>CAP, BW, SCH 40, B16.9, A234 WPB</v>
       </c>
       <c r="E108">
-        <v>60</v>
+        <v>3.2</v>
       </c>
       <c r="F108">
-        <v>4907605.8434999995</v>
+        <v>183305.84071360002</v>
       </c>
       <c r="G108">
-        <v>3620303.27802</v>
+        <v>28533.101824</v>
       </c>
       <c r="H108">
-        <v>10716</v>
+        <v>3364.9740928</v>
       </c>
       <c r="I108">
-        <v>30</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="109">
       <c r="A109">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B109" t="str">
         <v>U.N</v>
       </c>
       <c r="C109" t="str">
-        <v>4"</v>
+        <v>1 1/2"</v>
       </c>
       <c r="D109" t="str">
-        <v>FLANGE BLIND, RF, #600, B16.5, A105</v>
+        <v>CAP, SW, 3000#, B16.11, A105</v>
       </c>
       <c r="E109">
-        <v>130.9</v>
+        <v>0</v>
       </c>
       <c r="F109">
-        <v>6454123.3003841</v>
+        <v>0</v>
       </c>
       <c r="G109">
-        <v>614129.0162568</v>
+        <v>0</v>
       </c>
       <c r="H109">
-        <v>23912.026600000005</v>
+        <v>0</v>
       </c>
       <c r="I109">
-        <v>18.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B110" t="str">
         <v>U.N</v>
       </c>
       <c r="C110" t="str">
-        <v>2"</v>
+        <v>1"</v>
       </c>
       <c r="D110" t="str">
-        <v>FLANGE BLIND, RG, #150, B16.5, A105</v>
+        <v>CAP, SW, 3000#, B16.11, A105</v>
       </c>
       <c r="E110">
-        <v>12.600000000000001</v>
+        <v>0</v>
       </c>
       <c r="F110">
-        <v>771428.4812928</v>
+        <v>0</v>
       </c>
       <c r="G110">
-        <v>365608.7741448</v>
+        <v>0</v>
       </c>
       <c r="H110">
-        <v>9332.127278999998</v>
+        <v>0</v>
       </c>
       <c r="I110">
-        <v>1.8000000000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B111" t="str">
         <v>U.N</v>
       </c>
       <c r="C111" t="str">
-        <v>3"</v>
+        <v>4"</v>
       </c>
       <c r="D111" t="str">
-        <v>FLANGE BLIND, RG, #150, B16.5, A105</v>
+        <v>CONTROL VALVE, GLOBE, 600 LB, RF, ISA S75.03</v>
       </c>
       <c r="E111">
-        <v>6.8999999999999995</v>
+        <v>0</v>
       </c>
       <c r="F111">
-        <v>540304.3184149999</v>
+        <v>0</v>
       </c>
       <c r="G111">
-        <v>317230.2116218</v>
+        <v>0</v>
       </c>
       <c r="H111">
-        <v>1723.7340639</v>
+        <v>0</v>
       </c>
       <c r="I111">
-        <v>2.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B112" t="str">
         <v>U.N</v>
       </c>
       <c r="C112" t="str">
-        <v>4"</v>
+        <v>3"</v>
       </c>
       <c r="D112" t="str">
-        <v>FLANGE BLIND, RG, #150, B16.5, A105</v>
+        <v>CONTROL VALVE, GLOBE, LONG PATTERN, 900 LB, RTJ, ISA 75.08.06</v>
       </c>
       <c r="E112">
-        <v>16.4</v>
+        <v>0</v>
       </c>
       <c r="F112">
-        <v>1357251.4263167998</v>
+        <v>0</v>
       </c>
       <c r="G112">
-        <v>743490.4019916999</v>
+        <v>0</v>
       </c>
       <c r="H112">
-        <v>31553.6</v>
+        <v>0</v>
       </c>
       <c r="I112">
-        <v>4.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B113" t="str">
         <v>U.N</v>
       </c>
       <c r="C113" t="str">
-        <v>6"</v>
+        <v>3/4"</v>
       </c>
       <c r="D113" t="str">
-        <v>FLANGE BLIND, RG, #150, B16.5, A105</v>
+        <v>CONTROL VALVE, GLOBE, SHORT PATTERN, 150 LB, FPT, ISA S75.12</v>
       </c>
       <c r="E113">
-        <v>23.6</v>
+        <v>0</v>
       </c>
       <c r="F113">
-        <v>961197.4191200001</v>
+        <v>0</v>
       </c>
       <c r="G113">
-        <v>138042.5061814</v>
+        <v>0</v>
       </c>
       <c r="H113">
-        <v>46998.70213620001</v>
+        <v>0</v>
       </c>
       <c r="I113">
-        <v>11.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B114" t="str">
         <v>U.N</v>
       </c>
       <c r="C114" t="str">
-        <v>4"</v>
+        <v>1/2"</v>
       </c>
       <c r="D114" t="str">
-        <v>FLANGE BLIND, RTJ, #900, B16.5, A105</v>
+        <v>COUPLING, 3000 #, NPT, B16.11, A-105</v>
       </c>
       <c r="E114">
-        <v>98</v>
+        <v>3.220000000000002</v>
       </c>
       <c r="F114">
-        <v>2142097.689473</v>
+        <v>248538.13448086</v>
       </c>
       <c r="G114">
-        <v>235800.36475799998</v>
+        <v>64620.46182522</v>
       </c>
       <c r="H114">
-        <v>51746.391200000005</v>
+        <v>432.1374400000001</v>
       </c>
       <c r="I114">
-        <v>24.5</v>
+        <v>0.1400000000000001</v>
       </c>
     </row>
     <row r="115">
       <c r="A115">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B115" t="str">
         <v>U.N</v>
       </c>
       <c r="C115" t="str">
-        <v>1"</v>
+        <v>3/4"</v>
       </c>
       <c r="D115" t="str">
-        <v>FLANGE SW, #150, RF, B16.5, A105</v>
+        <v>COUPLING, 3000 #, NPT, B16.11, A-105</v>
       </c>
       <c r="E115">
-        <v>1.8</v>
+        <v>0.84</v>
       </c>
       <c r="F115">
-        <v>148879.272069</v>
+        <v>159148.29984396</v>
       </c>
       <c r="G115">
-        <v>108572.5223406</v>
+        <v>60506.55389352</v>
       </c>
       <c r="H115">
-        <v>639.5566968</v>
+        <v>2331.92928507</v>
       </c>
       <c r="I115">
-        <v>0.9</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="116">
       <c r="A116">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B116" t="str">
         <v>U.N</v>
@@ -3726,114 +3726,114 @@
         <v>1 1/2"</v>
       </c>
       <c r="D116" t="str">
-        <v>FLANGE SW, #150, RF, B16.5, A105</v>
+        <v>COUPLING, SW, 6000#, B16.11, A105</v>
       </c>
       <c r="E116">
-        <v>2.8</v>
+        <v>13.759999999999998</v>
       </c>
       <c r="F116">
-        <v>231298.77793399998</v>
+        <v>774113.6030923399</v>
       </c>
       <c r="G116">
-        <v>168890.5903076</v>
+        <v>144959.19156312005</v>
       </c>
       <c r="H116">
-        <v>500.0799999999999</v>
+        <v>2038.268799999999</v>
       </c>
       <c r="I116">
-        <v>1.4</v>
+        <v>0.8599999999999999</v>
       </c>
     </row>
     <row r="117">
       <c r="A117">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B117" t="str">
         <v>U.N</v>
       </c>
       <c r="C117" t="str">
-        <v>2"</v>
+        <v>1"</v>
       </c>
       <c r="D117" t="str">
-        <v>FLANGE WN, #150, RF, SCH 40, B16.5, A105</v>
+        <v>COUPLING, SW, 6000#, B16.11, A105</v>
       </c>
       <c r="E117">
-        <v>53.54999999999998</v>
+        <v>4.419999999999999</v>
       </c>
       <c r="F117">
-        <v>3405622.2709357496</v>
+        <v>296015.04036814003</v>
       </c>
       <c r="G117">
-        <v>1656726.1705790998</v>
+        <v>56870.78707438</v>
       </c>
       <c r="H117">
-        <v>35744.05434824999</v>
+        <v>621.89621</v>
       </c>
       <c r="I117">
-        <v>2.5499999999999994</v>
+        <v>0.3399999999999999</v>
       </c>
     </row>
     <row r="118">
       <c r="A118">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B118" t="str">
         <v>U.N</v>
       </c>
       <c r="C118" t="str">
-        <v>3"</v>
+        <v>1/2"</v>
       </c>
       <c r="D118" t="str">
-        <v>FLANGE WN, #150, RF, SCH 40, B16.5, A105</v>
+        <v>COUPLING, SW, 6000#, B16.11, A105</v>
       </c>
       <c r="E118">
-        <v>49.699999999999996</v>
+        <v>0.39</v>
       </c>
       <c r="F118">
-        <v>4064644.1880382802</v>
+        <v>14838.63689685</v>
       </c>
       <c r="G118">
-        <v>2895456.77800911</v>
+        <v>850.82484669</v>
       </c>
       <c r="H118">
-        <v>8825.974499999998</v>
+        <v>52.520520000000005</v>
       </c>
       <c r="I118">
-        <v>4.97</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="119">
       <c r="A119">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="B119" t="str">
         <v>U.N</v>
       </c>
       <c r="C119" t="str">
-        <v>4"</v>
+        <v>3/4"</v>
       </c>
       <c r="D119" t="str">
-        <v>FLANGE WN, #150, RF, SCH 40, B16.5, A105</v>
+        <v>COUPLING, SW, 6000#, B16.11, A105</v>
       </c>
       <c r="E119">
-        <v>28.48</v>
+        <v>9.030000000000005</v>
       </c>
       <c r="F119">
-        <v>2360939.97441632</v>
+        <v>1165448.2535528701</v>
       </c>
       <c r="G119">
-        <v>1291134.5517514402</v>
+        <v>477976.0677064799</v>
       </c>
       <c r="H119">
-        <v>23467.52</v>
+        <v>15840.455268119998</v>
       </c>
       <c r="I119">
-        <v>7.12</v>
+        <v>0.20066666666666677</v>
       </c>
     </row>
     <row r="120">
       <c r="A120">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B120" t="str">
         <v>U.N</v>
@@ -3842,399 +3842,399 @@
         <v>6"</v>
       </c>
       <c r="D120" t="str">
-        <v>FLANGE WN, #150, RF, SCH 40, B16.5, A105</v>
+        <v>LATERAL 45�, BW, B16.9</v>
       </c>
       <c r="E120">
-        <v>130.92</v>
+        <v>0</v>
       </c>
       <c r="F120">
-        <v>19674861.731042232</v>
+        <v>0</v>
       </c>
       <c r="G120">
-        <v>7545582.422474239</v>
+        <v>0</v>
       </c>
       <c r="H120">
-        <v>336280.01064641</v>
+        <v>0</v>
       </c>
       <c r="I120">
-        <v>10.909999999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B121" t="str">
         <v>U.N</v>
       </c>
       <c r="C121" t="str">
-        <v>2"</v>
+        <v>4"</v>
       </c>
       <c r="D121" t="str">
-        <v>FLANGE WN, RF, #600, SCH 80, B16.5, A105</v>
+        <v>ORIFICE PLATE, 900 LB, RTJ, ASME B16.48</v>
       </c>
       <c r="E121">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F121">
-        <v>666733.777911</v>
+        <v>0</v>
       </c>
       <c r="G121">
-        <v>118056.43122299999</v>
+        <v>0</v>
       </c>
       <c r="H121">
-        <v>3943.7819999999997</v>
+        <v>0</v>
       </c>
       <c r="I121">
-        <v>4.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B122" t="str">
         <v>U.N</v>
       </c>
       <c r="C122" t="str">
-        <v>3"</v>
+        <v>4"x1/2"</v>
       </c>
       <c r="D122" t="str">
-        <v>FLANGE WN, RF, #600, SCH 80, B16.5, A105</v>
+        <v>ORIFICE WN, RTJ, #900, SCH 160, B16.36, A105</v>
       </c>
       <c r="E122">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="F122">
-        <v>2574315.389979</v>
+        <v>331633.976322</v>
       </c>
       <c r="G122">
-        <v>455802.361254</v>
+        <v>50107.247762</v>
       </c>
       <c r="H122">
-        <v>106937.52227999999</v>
+        <v>3974.6761560000004</v>
       </c>
       <c r="I122">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="123">
       <c r="A123">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B123" t="str">
         <v>U.N</v>
       </c>
       <c r="C123" t="str">
-        <v>4"</v>
+        <v>4"x1/2"x4"</v>
       </c>
       <c r="D123" t="str">
-        <v>FLANGE WN, RF, #600, SCH 80, B16.5, A105</v>
+        <v>ORIFICE WN, RTJ, #900, SCH 160, B16.36, A105</v>
       </c>
       <c r="E123">
-        <v>264.18</v>
+        <v>22</v>
       </c>
       <c r="F123">
-        <v>15555030.647345852</v>
+        <v>331042.41038</v>
       </c>
       <c r="G123">
-        <v>2246858.45551026</v>
+        <v>50107.247762</v>
       </c>
       <c r="H123">
-        <v>131327.49596397002</v>
+        <v>3974.4215940000004</v>
       </c>
       <c r="I123">
-        <v>18.87</v>
+        <v>22</v>
       </c>
     </row>
     <row r="124">
       <c r="A124">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B124" t="str">
         <v>U.N</v>
       </c>
       <c r="C124" t="str">
-        <v>2"</v>
+        <v>1 1/2"</v>
       </c>
       <c r="D124" t="str">
-        <v>FLANGE WN, RTJ, #900, SCH 160, B16.5, A105</v>
+        <v>PLUG, HEX HEAD, NPT, 3000#, B16.11, A105</v>
       </c>
       <c r="E124">
-        <v>43.2</v>
+        <v>0.57</v>
       </c>
       <c r="F124">
-        <v>984975.8621544</v>
+        <v>970.2399323999999</v>
       </c>
       <c r="G124">
-        <v>165485.79845280002</v>
+        <v>4091.454722369999</v>
       </c>
       <c r="H124">
-        <v>32823.9238896</v>
+        <v>84.43409999999999</v>
       </c>
       <c r="I124">
-        <v>10.8</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="125">
       <c r="A125">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B125" t="str">
         <v>U.N</v>
       </c>
       <c r="C125" t="str">
-        <v>3"</v>
+        <v>1"</v>
       </c>
       <c r="D125" t="str">
-        <v>FLANGE WN, RTJ, #900, SCH 160, B16.5, A105</v>
+        <v>PLUG, HEX HEAD, NPT, 3000#, B16.11, A105</v>
       </c>
       <c r="E125">
-        <v>105.84000000000002</v>
+        <v>0.42</v>
       </c>
       <c r="F125">
-        <v>2453664.0782782803</v>
+        <v>11986.043099940001</v>
       </c>
       <c r="G125">
-        <v>490461.18476796</v>
+        <v>3696.87708558</v>
       </c>
       <c r="H125">
-        <v>80418.61352952</v>
+        <v>59.09421</v>
       </c>
       <c r="I125">
-        <v>13.230000000000002</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="126">
       <c r="A126">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B126" t="str">
         <v>U.N</v>
       </c>
       <c r="C126" t="str">
-        <v>4"</v>
+        <v>1/2"</v>
       </c>
       <c r="D126" t="str">
-        <v>FLANGE WN, RTJ, #900, SCH 160, B16.5, A105</v>
+        <v>PLUG, HEX HEAD, NPT, 3000#, B16.11, A105</v>
       </c>
       <c r="E126">
-        <v>173.76</v>
+        <v>0.7700000000000002</v>
       </c>
       <c r="F126">
-        <v>3486007.4087558393</v>
+        <v>52559.42553939</v>
       </c>
       <c r="G126">
-        <v>418088.48347296</v>
+        <v>23113.17950641</v>
       </c>
       <c r="H126">
-        <v>41136.498432</v>
+        <v>220.32582656000002</v>
       </c>
       <c r="I126">
-        <v>21.72</v>
+        <v>0.07000000000000002</v>
       </c>
     </row>
     <row r="127">
       <c r="A127">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B127" t="str">
         <v>U.N</v>
       </c>
       <c r="C127" t="str">
-        <v>1/2" x 70</v>
+        <v>3"</v>
       </c>
       <c r="D127" t="str">
-        <v>STUD BOLT SET A193 GR B7/ A194 GR 2H</v>
+        <v>Y-TYPE STRAINER, RF, #150, B16.10, A216 GR WCB</v>
       </c>
       <c r="E127">
-        <v>1.04</v>
+        <v>60</v>
       </c>
       <c r="F127">
-        <v>NaN</v>
+        <v>4907605.8434999995</v>
       </c>
       <c r="G127">
-        <v>NaN</v>
+        <v>3620303.27802</v>
       </c>
       <c r="H127">
-        <v>NaN</v>
+        <v>10716</v>
       </c>
       <c r="I127">
-        <v>0.13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="128">
       <c r="A128">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B128" t="str">
         <v>U.N</v>
       </c>
       <c r="C128" t="str">
-        <v>1/2" x 64</v>
+        <v>4"</v>
       </c>
       <c r="D128" t="str">
-        <v>STUD BOLT SET A193 GR B7/ A194 GR 2H</v>
+        <v>FLANGE BLIND, RF, #600, B16.5, A105</v>
       </c>
       <c r="E128">
-        <v>1</v>
+        <v>130.9</v>
       </c>
       <c r="F128">
-        <v>NaN</v>
+        <v>6454123.3003841</v>
       </c>
       <c r="G128">
-        <v>NaN</v>
+        <v>614129.0162567999</v>
       </c>
       <c r="H128">
-        <v>NaN</v>
+        <v>23912.0266</v>
       </c>
       <c r="I128">
-        <v>0.125</v>
+        <v>18.7</v>
       </c>
     </row>
     <row r="129">
       <c r="A129">
-        <v>172</v>
+        <v>7</v>
       </c>
       <c r="B129" t="str">
         <v>U.N</v>
       </c>
       <c r="C129" t="str">
-        <v>5/8" x 83</v>
+        <v>2"</v>
       </c>
       <c r="D129" t="str">
-        <v>STUD BOLT, A193-B7/A194-2H/F436</v>
+        <v>FLANGE BLIND, RG, #150, B16.5, A105</v>
       </c>
       <c r="E129">
-        <v>50.03000000000002</v>
+        <v>12.600000000000001</v>
       </c>
       <c r="F129">
-        <v>NaN</v>
+        <v>771428.4812928</v>
       </c>
       <c r="G129">
-        <v>NaN</v>
+        <v>365608.77414480003</v>
       </c>
       <c r="H129">
-        <v>NaN</v>
+        <v>9332.127279</v>
       </c>
       <c r="I129">
-        <v>0.29087209302325595</v>
+        <v>1.8000000000000003</v>
       </c>
     </row>
     <row r="130">
       <c r="A130">
-        <v>160</v>
+        <v>3</v>
       </c>
       <c r="B130" t="str">
         <v>U.N</v>
       </c>
       <c r="C130" t="str">
-        <v>5/8" x 89</v>
+        <v>3"</v>
       </c>
       <c r="D130" t="str">
-        <v>STUD BOLT SET A193 GR B7/ A194 GR 2H</v>
+        <v>FLANGE BLIND, RG, #150, B16.5, A105</v>
       </c>
       <c r="E130">
-        <v>74.52</v>
+        <v>6.8999999999999995</v>
       </c>
       <c r="F130">
-        <v>NaN</v>
+        <v>540304.3184149999</v>
       </c>
       <c r="G130">
-        <v>NaN</v>
+        <v>317230.2116218</v>
       </c>
       <c r="H130">
-        <v>NaN</v>
+        <v>1723.7340639</v>
       </c>
       <c r="I130">
-        <v>0.46575</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="131">
       <c r="A131">
-        <v>288</v>
+        <v>4</v>
       </c>
       <c r="B131" t="str">
         <v>U.N</v>
       </c>
       <c r="C131" t="str">
-        <v>1 1/8" x 4320</v>
+        <v>4"</v>
       </c>
       <c r="D131" t="str">
-        <v>STUD BOLT SET A193 GR B7/ A194 GR 2H</v>
+        <v>FLANGE BLIND, RG, #150, B16.5, A105</v>
       </c>
       <c r="E131">
-        <v>212.08</v>
+        <v>16.4</v>
       </c>
       <c r="F131">
-        <v>NaN</v>
+        <v>1357251.4263167998</v>
       </c>
       <c r="G131">
-        <v>NaN</v>
+        <v>743490.4019916999</v>
       </c>
       <c r="H131">
-        <v>NaN</v>
+        <v>31553.6</v>
       </c>
       <c r="I131">
-        <v>0.736388888888889</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="132">
       <c r="A132">
-        <v>96</v>
+        <v>2</v>
       </c>
       <c r="B132" t="str">
         <v>U.N</v>
       </c>
       <c r="C132" t="str">
-        <v>3/4" x 102</v>
+        <v>6"</v>
       </c>
       <c r="D132" t="str">
-        <v>STUD BOLT SET A193 GR B7/ A194 GR 2H</v>
+        <v>FLANGE BLIND, RG, #150, B16.5, A105</v>
       </c>
       <c r="E132">
-        <v>34.92</v>
+        <v>23.6</v>
       </c>
       <c r="F132">
-        <v>NaN</v>
+        <v>961197.4191200001</v>
       </c>
       <c r="G132">
-        <v>NaN</v>
+        <v>138042.5061814</v>
       </c>
       <c r="H132">
-        <v>NaN</v>
+        <v>46998.70213620001</v>
       </c>
       <c r="I132">
-        <v>0.36375</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="133">
       <c r="A133">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B133" t="str">
         <v>U.N</v>
       </c>
       <c r="C133" t="str">
-        <v>1"</v>
+        <v>4"</v>
       </c>
       <c r="D133" t="str">
-        <v xml:space="preserve">GASKET SWG 1/8", RF, #150, GRAPHITE </v>
+        <v>FLANGE BLIND, RTJ, #900, B16.5, A105</v>
       </c>
       <c r="E133">
-        <v>0.08</v>
+        <v>98</v>
       </c>
       <c r="F133">
-        <v>NaN</v>
+        <v>2142097.689473</v>
       </c>
       <c r="G133">
-        <v>NaN</v>
+        <v>235800.364758</v>
       </c>
       <c r="H133">
-        <v>NaN</v>
+        <v>51746.3912</v>
       </c>
       <c r="I133">
-        <v>0.04</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="134">
@@ -4245,518 +4245,518 @@
         <v>U.N</v>
       </c>
       <c r="C134" t="str">
-        <v>1 1/2"</v>
+        <v>1"</v>
       </c>
       <c r="D134" t="str">
-        <v xml:space="preserve">GASKET SWG 1/8", RF, #150, GRAPHITE </v>
+        <v>FLANGE SW, #150, RF, B16.5, A105</v>
       </c>
       <c r="E134">
-        <v>0.12</v>
+        <v>1.8</v>
       </c>
       <c r="F134">
-        <v>NaN</v>
+        <v>148879.272069</v>
       </c>
       <c r="G134">
-        <v>NaN</v>
+        <v>108572.5223406</v>
       </c>
       <c r="H134">
-        <v>NaN</v>
+        <v>639.5566968</v>
       </c>
       <c r="I134">
-        <v>0.06</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="135">
       <c r="A135">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="B135" t="str">
         <v>U.N</v>
       </c>
       <c r="C135" t="str">
-        <v>2"</v>
+        <v>1 1/2"</v>
       </c>
       <c r="D135" t="str">
-        <v xml:space="preserve">GASKET SWG 1/8", RF, #150, GRAPHITE </v>
+        <v>FLANGE SW, #150, RF, B16.5, A105</v>
       </c>
       <c r="E135">
-        <v>2.43</v>
+        <v>2.8</v>
       </c>
       <c r="F135">
-        <v>NaN</v>
+        <v>231298.77793399998</v>
       </c>
       <c r="G135">
-        <v>NaN</v>
+        <v>168890.5903076</v>
       </c>
       <c r="H135">
-        <v>NaN</v>
+        <v>500.0799999999999</v>
       </c>
       <c r="I135">
-        <v>0.09000000000000001</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="136">
       <c r="A136">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B136" t="str">
         <v>U.N</v>
       </c>
       <c r="C136" t="str">
-        <v>3"</v>
+        <v>2"</v>
       </c>
       <c r="D136" t="str">
-        <v xml:space="preserve">GASKET SWG 1/8", RF, #150, GRAPHITE </v>
+        <v>FLANGE WN, #150, RF, SCH 40, B16.5, A105</v>
       </c>
       <c r="E136">
-        <v>1.6800000000000006</v>
+        <v>53.54999999999998</v>
       </c>
       <c r="F136">
-        <v>NaN</v>
+        <v>3405622.2709357496</v>
       </c>
       <c r="G136">
-        <v>NaN</v>
+        <v>1656726.1705790996</v>
       </c>
       <c r="H136">
-        <v>NaN</v>
+        <v>35744.05434825</v>
       </c>
       <c r="I136">
-        <v>0.14000000000000004</v>
+        <v>2.5499999999999994</v>
       </c>
     </row>
     <row r="137">
       <c r="A137">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B137" t="str">
         <v>U.N</v>
       </c>
       <c r="C137" t="str">
-        <v>4"</v>
+        <v>3"</v>
       </c>
       <c r="D137" t="str">
-        <v xml:space="preserve">GASKET SWG 1/8", RF, #150, GRAPHITE </v>
+        <v>FLANGE WN, #150, RF, SCH 40, B16.5, A105</v>
       </c>
       <c r="E137">
-        <v>2.7600000000000002</v>
+        <v>49.699999999999996</v>
       </c>
       <c r="F137">
-        <v>NaN</v>
+        <v>4064644.1880382793</v>
       </c>
       <c r="G137">
-        <v>NaN</v>
+        <v>2895456.77800911</v>
       </c>
       <c r="H137">
-        <v>NaN</v>
+        <v>8825.974499999998</v>
       </c>
       <c r="I137">
-        <v>0.23</v>
+        <v>4.97</v>
       </c>
     </row>
     <row r="138">
       <c r="A138">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B138" t="str">
         <v>U.N</v>
       </c>
       <c r="C138" t="str">
-        <v>6"</v>
+        <v>4"</v>
       </c>
       <c r="D138" t="str">
-        <v xml:space="preserve">GASKET SWG 1/8", RF, #150, GRAPHITE </v>
+        <v>FLANGE WN, #150, RF, SCH 40, B16.5, A105</v>
       </c>
       <c r="E138">
-        <v>3.599999999999999</v>
+        <v>28.48</v>
       </c>
       <c r="F138">
-        <v>NaN</v>
+        <v>2360939.97441632</v>
       </c>
       <c r="G138">
-        <v>NaN</v>
+        <v>1291134.5517514402</v>
       </c>
       <c r="H138">
-        <v>NaN</v>
+        <v>23467.52</v>
       </c>
       <c r="I138">
-        <v>0.29999999999999993</v>
+        <v>7.12</v>
       </c>
     </row>
     <row r="139">
       <c r="A139">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B139" t="str">
         <v>U.N</v>
       </c>
       <c r="C139" t="str">
-        <v>2"</v>
+        <v>6"</v>
       </c>
       <c r="D139" t="str">
-        <v>GASKET, OVAL, RTJ, #900, B16.20</v>
+        <v>FLANGE WN, #150, RF, SCH 40, B16.5, A105</v>
       </c>
       <c r="E139">
-        <v>0.88</v>
+        <v>130.92</v>
       </c>
       <c r="F139">
-        <v>NaN</v>
+        <v>19674861.731042232</v>
       </c>
       <c r="G139">
-        <v>NaN</v>
+        <v>7545582.42247424</v>
       </c>
       <c r="H139">
-        <v>NaN</v>
+        <v>336280.01064641</v>
       </c>
       <c r="I139">
-        <v>0.22</v>
+        <v>10.909999999999998</v>
       </c>
     </row>
     <row r="140">
       <c r="A140">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B140" t="str">
         <v>U.N</v>
       </c>
       <c r="C140" t="str">
-        <v>3"</v>
+        <v>2"</v>
       </c>
       <c r="D140" t="str">
-        <v>GASKET, OVAL, RTJ, #900, B16.20</v>
+        <v>FLANGE WN, RF, #600, SCH 80, B16.5, A105</v>
       </c>
       <c r="E140">
-        <v>2.9600000000000004</v>
+        <v>9</v>
       </c>
       <c r="F140">
-        <v>NaN</v>
+        <v>666733.777911</v>
       </c>
       <c r="G140">
-        <v>NaN</v>
+        <v>118056.43122299999</v>
       </c>
       <c r="H140">
-        <v>NaN</v>
+        <v>3943.7819999999997</v>
       </c>
       <c r="I140">
-        <v>0.37000000000000005</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="141">
       <c r="A141">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B141" t="str">
         <v>U.N</v>
       </c>
       <c r="C141" t="str">
-        <v>4"</v>
+        <v>3"</v>
       </c>
       <c r="D141" t="str">
-        <v>GASKET, OVAL, RTJ, #900, B16.20</v>
+        <v>FLANGE WN, RF, #600, SCH 80, B16.5, A105</v>
       </c>
       <c r="E141">
-        <v>6.48</v>
+        <v>90</v>
       </c>
       <c r="F141">
-        <v>NaN</v>
+        <v>2574315.3899789997</v>
       </c>
       <c r="G141">
-        <v>NaN</v>
+        <v>455802.361254</v>
       </c>
       <c r="H141">
-        <v>NaN</v>
+        <v>106937.52227999999</v>
       </c>
       <c r="I141">
-        <v>0.54</v>
+        <v>9</v>
       </c>
     </row>
     <row r="142">
       <c r="A142">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B142" t="str">
         <v>U.N</v>
       </c>
       <c r="C142" t="str">
-        <v>2"</v>
+        <v>4"</v>
       </c>
       <c r="D142" t="str">
-        <v xml:space="preserve">GASKET, SWG, 1/8", RF, #600, GRAPHITE </v>
+        <v>FLANGE WN, RF, #600, SCH 80, B16.5, A105</v>
       </c>
       <c r="E142">
-        <v>0.22</v>
+        <v>264.18</v>
       </c>
       <c r="F142">
-        <v>NaN</v>
+        <v>15555030.647345852</v>
       </c>
       <c r="G142">
-        <v>NaN</v>
+        <v>2246858.45551026</v>
       </c>
       <c r="H142">
-        <v>NaN</v>
+        <v>131327.49596397002</v>
       </c>
       <c r="I142">
-        <v>0.11</v>
+        <v>18.87</v>
       </c>
     </row>
     <row r="143">
       <c r="A143">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B143" t="str">
         <v>U.N</v>
       </c>
       <c r="C143" t="str">
-        <v>3"</v>
+        <v>2"</v>
       </c>
       <c r="D143" t="str">
-        <v xml:space="preserve">GASKET, SWG, 1/8", RF, #600, GRAPHITE </v>
+        <v>FLANGE WN, RTJ, #900, SCH 160, B16.5, A105</v>
       </c>
       <c r="E143">
-        <v>1.14</v>
+        <v>43.2</v>
       </c>
       <c r="F143">
-        <v>NaN</v>
+        <v>984975.8621544</v>
       </c>
       <c r="G143">
-        <v>NaN</v>
+        <v>165485.79845280002</v>
       </c>
       <c r="H143">
-        <v>NaN</v>
+        <v>32823.9238896</v>
       </c>
       <c r="I143">
-        <v>0.18999999999999997</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="144">
       <c r="A144">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B144" t="str">
         <v>U.N</v>
       </c>
       <c r="C144" t="str">
-        <v>4"</v>
+        <v>3"</v>
       </c>
       <c r="D144" t="str">
-        <v xml:space="preserve">GASKET, SWG, 1/8", RF, #600, GRAPHITE </v>
+        <v>FLANGE WN, RTJ, #900, SCH 160, B16.5, A105</v>
       </c>
       <c r="E144">
-        <v>4.159999999999999</v>
+        <v>105.84000000000002</v>
       </c>
       <c r="F144">
-        <v>NaN</v>
+        <v>2453664.0782782803</v>
       </c>
       <c r="G144">
-        <v>NaN</v>
+        <v>490461.18476796</v>
       </c>
       <c r="H144">
-        <v>NaN</v>
+        <v>80418.61352952</v>
       </c>
       <c r="I144">
-        <v>0.31999999999999995</v>
+        <v>13.230000000000002</v>
       </c>
     </row>
     <row r="145">
       <c r="A145">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B145" t="str">
         <v>U.N</v>
       </c>
       <c r="C145" t="str">
-        <v>1/2"</v>
+        <v>4"</v>
       </c>
       <c r="D145" t="str">
-        <v>BALL VALVE, FLOATING, NPT, 800#, FB, FS, A216 GR. WCB</v>
+        <v>FLANGE WN, RTJ, #900, SCH 160, B16.5, A105</v>
       </c>
       <c r="E145">
-        <v>0</v>
+        <v>173.76</v>
       </c>
       <c r="F145">
-        <v>0</v>
+        <v>3486007.4087558393</v>
       </c>
       <c r="G145">
-        <v>0</v>
+        <v>418088.48347296</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>41136.498432</v>
       </c>
       <c r="I145">
-        <v>0</v>
+        <v>21.72</v>
       </c>
     </row>
     <row r="146">
       <c r="A146">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B146" t="str">
         <v>U.N</v>
       </c>
       <c r="C146" t="str">
-        <v>1"</v>
+        <v>1/2" x 70</v>
       </c>
       <c r="D146" t="str">
-        <v>BALL VALVE, FLOATING, NPT, 800#, FB, FS, A216 GR. WCB</v>
+        <v>STUD BOLT SET A193 GR B7/ A194 GR 2H</v>
       </c>
       <c r="E146">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="F146">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="G146">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="I146">
-        <v>0</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="147">
       <c r="A147">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B147" t="str">
         <v>U.N</v>
       </c>
       <c r="C147" t="str">
-        <v>1 1/2"</v>
+        <v>1/2" x 64</v>
       </c>
       <c r="D147" t="str">
-        <v>BALL VALVE, FLOATING, NPT, 800#, FB, FS, A216 GR. WCB</v>
+        <v>STUD BOLT SET A193 GR B7/ A194 GR 2H</v>
       </c>
       <c r="E147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F147">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="G147">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="I147">
-        <v>0</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="148">
       <c r="A148">
-        <v>10</v>
+        <v>172</v>
       </c>
       <c r="B148" t="str">
         <v>U.N</v>
       </c>
       <c r="C148" t="str">
-        <v>2"</v>
+        <v>5/8" x 83</v>
       </c>
       <c r="D148" t="str">
-        <v>BALL VALVE, RF, #150, FB, FS, B16.10, A216 GR. WCB</v>
+        <v>STUD BOLT, A193-B7/A194-2H/F436</v>
       </c>
       <c r="E148">
-        <v>150</v>
+        <v>50.03000000000002</v>
       </c>
       <c r="F148">
-        <v>10055357.357445002</v>
+        <v>NaN</v>
       </c>
       <c r="G148">
-        <v>4897183.190474999</v>
+        <v>NaN</v>
       </c>
       <c r="H148">
-        <v>107882.7486</v>
+        <v>NaN</v>
       </c>
       <c r="I148">
-        <v>15</v>
+        <v>0.29087209302325595</v>
       </c>
     </row>
     <row r="149">
       <c r="A149">
-        <v>3</v>
+        <v>160</v>
       </c>
       <c r="B149" t="str">
         <v>U.N</v>
       </c>
       <c r="C149" t="str">
-        <v>3"</v>
+        <v>5/8" x 89</v>
       </c>
       <c r="D149" t="str">
-        <v>BALL VALVE, RF, #150, FB, FS, B16.10, A216 GR. WCB</v>
+        <v>STUD BOLT SET A193 GR B7/ A194 GR 2H</v>
       </c>
       <c r="E149">
-        <v>75</v>
+        <v>74.52</v>
       </c>
       <c r="F149">
-        <v>5839524.5839</v>
+        <v>NaN</v>
       </c>
       <c r="G149">
-        <v>3968079.5443249997</v>
+        <v>NaN</v>
       </c>
       <c r="H149">
-        <v>18989.989824999997</v>
+        <v>NaN</v>
       </c>
       <c r="I149">
-        <v>25</v>
+        <v>0.46575</v>
       </c>
     </row>
     <row r="150">
       <c r="A150">
-        <v>4</v>
+        <v>288</v>
       </c>
       <c r="B150" t="str">
         <v>U.N</v>
       </c>
       <c r="C150" t="str">
-        <v>4"</v>
+        <v>1 1/8" x 4320</v>
       </c>
       <c r="D150" t="str">
-        <v>BALL VALVE, RF, #150, FB, FS, B16.10, A216 GR. WCB</v>
+        <v>STUD BOLT SET A193 GR B7/ A194 GR 2H</v>
       </c>
       <c r="E150">
-        <v>180</v>
+        <v>212.08</v>
       </c>
       <c r="F150">
-        <v>14890378.132620001</v>
+        <v>NaN</v>
       </c>
       <c r="G150">
-        <v>8160260.509664999</v>
+        <v>NaN</v>
       </c>
       <c r="H150">
-        <v>148320</v>
+        <v>NaN</v>
       </c>
       <c r="I150">
-        <v>45</v>
+        <v>0.736388888888889</v>
       </c>
     </row>
     <row r="151">
       <c r="A151">
-        <v>3</v>
+        <v>96</v>
       </c>
       <c r="B151" t="str">
         <v>U.N</v>
       </c>
       <c r="C151" t="str">
-        <v>6"</v>
+        <v>3/4" x 102</v>
       </c>
       <c r="D151" t="str">
-        <v>BALL VALVE, RF, #150, FB, FS, B16.10, A216 GR. WCB</v>
+        <v>STUD BOLT SET A193 GR B7/ A194 GR 2H</v>
       </c>
       <c r="E151">
-        <v>231</v>
+        <v>34.92</v>
       </c>
       <c r="F151">
-        <v>46455980.545743994</v>
+        <v>NaN</v>
       </c>
       <c r="G151">
-        <v>19186477.837912</v>
+        <v>NaN</v>
       </c>
       <c r="H151">
-        <v>665541.515716</v>
+        <v>NaN</v>
       </c>
       <c r="I151">
-        <v>77</v>
+        <v>0.36375</v>
       </c>
     </row>
     <row r="152">
@@ -4767,88 +4767,88 @@
         <v>U.N</v>
       </c>
       <c r="C152" t="str">
-        <v>3"</v>
+        <v>1"</v>
       </c>
       <c r="D152" t="str">
-        <v>BALL VALVE, RF, #600, FB, FS, B16.10, A216 GR WCB</v>
+        <v xml:space="preserve">GASKET SWG 1/8", RF, #150, GRAPHITE </v>
       </c>
       <c r="E152">
-        <v>72</v>
+        <v>0.08</v>
       </c>
       <c r="F152">
-        <v>1686875.736924</v>
+        <v>NaN</v>
       </c>
       <c r="G152">
-        <v>306510.98245199997</v>
+        <v>NaN</v>
       </c>
       <c r="H152">
-        <v>54706.539816</v>
+        <v>NaN</v>
       </c>
       <c r="I152">
-        <v>36</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="153">
       <c r="A153">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B153" t="str">
         <v>U.N</v>
       </c>
       <c r="C153" t="str">
-        <v>1/2"</v>
+        <v>1 1/2"</v>
       </c>
       <c r="D153" t="str">
-        <v>BALL VALVE, SW, 5000 CWP, FB, FS, B16.10</v>
+        <v xml:space="preserve">GASKET SWG 1/8", RF, #150, GRAPHITE </v>
       </c>
       <c r="E153">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="F153">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="G153">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="I153">
-        <v>0</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="154">
       <c r="A154">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="B154" t="str">
         <v>U.N</v>
       </c>
       <c r="C154" t="str">
-        <v>3/4"</v>
+        <v>2"</v>
       </c>
       <c r="D154" t="str">
-        <v>BALL VALVE, SW, 5000 CWP, FB, FS, B16.10</v>
+        <v xml:space="preserve">GASKET SWG 1/8", RF, #150, GRAPHITE </v>
       </c>
       <c r="E154">
-        <v>0</v>
+        <v>2.43</v>
       </c>
       <c r="F154">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="G154">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="I154">
-        <v>0</v>
+        <v>0.09000000000000001</v>
       </c>
     </row>
     <row r="155">
       <c r="A155">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B155" t="str">
         <v>U.N</v>
@@ -4857,27 +4857,27 @@
         <v>3"</v>
       </c>
       <c r="D155" t="str">
-        <v>BALL VALVE, TRUNNION, RTJ, #900, B16.10, A216 GR WCB</v>
+        <v xml:space="preserve">GASKET SWG 1/8", RF, #150, GRAPHITE </v>
       </c>
       <c r="E155">
-        <v>110</v>
+        <v>1.6800000000000006</v>
       </c>
       <c r="F155">
-        <v>2550104.389745</v>
+        <v>NaN</v>
       </c>
       <c r="G155">
-        <v>571949.42574</v>
+        <v>NaN</v>
       </c>
       <c r="H155">
-        <v>83579.43583</v>
+        <v>NaN</v>
       </c>
       <c r="I155">
-        <v>55</v>
+        <v>0.14000000000000004</v>
       </c>
     </row>
     <row r="156">
       <c r="A156">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B156" t="str">
         <v>U.N</v>
@@ -4886,56 +4886,56 @@
         <v>4"</v>
       </c>
       <c r="D156" t="str">
-        <v>BALL VALVE, TRUNNION, RTJ, #900, B16.10, A216 GR WCB</v>
+        <v xml:space="preserve">GASKET SWG 1/8", RF, #150, GRAPHITE </v>
       </c>
       <c r="E156">
-        <v>344</v>
+        <v>2.7600000000000002</v>
       </c>
       <c r="F156">
-        <v>6673769.656843999</v>
+        <v>NaN</v>
       </c>
       <c r="G156">
-        <v>827707.402824</v>
+        <v>NaN</v>
       </c>
       <c r="H156">
-        <v>101778.72959999999</v>
+        <v>NaN</v>
       </c>
       <c r="I156">
-        <v>86</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="157">
       <c r="A157">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B157" t="str">
         <v>U.N</v>
       </c>
       <c r="C157" t="str">
-        <v>1 1/2"</v>
+        <v>6"</v>
       </c>
       <c r="D157" t="str">
-        <v>CHECK VALVE, SPRING LOADED BALL, NPT, B16.10, A105</v>
+        <v xml:space="preserve">GASKET SWG 1/8", RF, #150, GRAPHITE </v>
       </c>
       <c r="E157">
-        <v>18.2</v>
+        <v>3.599999999999999</v>
       </c>
       <c r="F157">
-        <v>1034367.3430635999</v>
+        <v>NaN</v>
       </c>
       <c r="G157">
-        <v>118664.00930019999</v>
+        <v>NaN</v>
       </c>
       <c r="H157">
-        <v>1170.26</v>
+        <v>NaN</v>
       </c>
       <c r="I157">
-        <v>9.1</v>
+        <v>0.29999999999999993</v>
       </c>
     </row>
     <row r="158">
       <c r="A158">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B158" t="str">
         <v>U.N</v>
@@ -4944,80 +4944,80 @@
         <v>2"</v>
       </c>
       <c r="D158" t="str">
-        <v>CHECK VALVE, SWING, RF, #150, B16.10, A216 GR WCB</v>
+        <v>GASKET, OVAL, RTJ, #900, B16.20</v>
       </c>
       <c r="E158">
-        <v>38</v>
+        <v>0.88</v>
       </c>
       <c r="F158">
-        <v>3112288.02282</v>
+        <v>NaN</v>
       </c>
       <c r="G158">
-        <v>2302195.098444</v>
+        <v>NaN</v>
       </c>
       <c r="H158">
-        <v>22942.386</v>
+        <v>NaN</v>
       </c>
       <c r="I158">
-        <v>19</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="159">
       <c r="A159">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B159" t="str">
         <v>U.N</v>
       </c>
       <c r="C159" t="str">
-        <v>1/2"</v>
+        <v>3"</v>
       </c>
       <c r="D159" t="str">
-        <v>FLOATING BALL VALVE, 1000#, NPT, B16.10, A-105</v>
+        <v>GASKET, OVAL, RTJ, #900, B16.20</v>
       </c>
       <c r="E159">
-        <v>4.8</v>
+        <v>2.9600000000000004</v>
       </c>
       <c r="F159">
-        <v>396854.3932752</v>
+        <v>NaN</v>
       </c>
       <c r="G159">
-        <v>202239.36976079998</v>
+        <v>NaN</v>
       </c>
       <c r="H159">
-        <v>1221.052896</v>
+        <v>NaN</v>
       </c>
       <c r="I159">
-        <v>2.4</v>
+        <v>0.37000000000000005</v>
       </c>
     </row>
     <row r="160">
       <c r="A160">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B160" t="str">
         <v>U.N</v>
       </c>
       <c r="C160" t="str">
-        <v>1"</v>
+        <v>4"</v>
       </c>
       <c r="D160" t="str">
-        <v>FLOATING BALL VALVE, 1000#, NPT, B16.10, A-105</v>
+        <v>GASKET, OVAL, RTJ, #900, B16.20</v>
       </c>
       <c r="E160">
-        <v>28</v>
+        <v>6.48</v>
       </c>
       <c r="F160">
-        <v>1007685.4665528</v>
+        <v>NaN</v>
       </c>
       <c r="G160">
-        <v>731256.2859168</v>
+        <v>NaN</v>
       </c>
       <c r="H160">
-        <v>5212.891824</v>
+        <v>NaN</v>
       </c>
       <c r="I160">
-        <v>5.6</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="161">
@@ -5028,88 +5028,88 @@
         <v>U.N</v>
       </c>
       <c r="C161" t="str">
-        <v>1 1/2"</v>
+        <v>2"</v>
       </c>
       <c r="D161" t="str">
-        <v>FLOATING BALL VALVE, 1000#, NPT, B16.10, A-105</v>
+        <v xml:space="preserve">GASKET, SWG, 1/8", RF, #600, GRAPHITE </v>
       </c>
       <c r="E161">
-        <v>19.52</v>
+        <v>0.22</v>
       </c>
       <c r="F161">
-        <v>1614053.02353248</v>
+        <v>NaN</v>
       </c>
       <c r="G161">
-        <v>997607.2905824</v>
+        <v>NaN</v>
       </c>
       <c r="H161">
-        <v>4965.6151104</v>
+        <v>NaN</v>
       </c>
       <c r="I161">
-        <v>9.76</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="162">
       <c r="A162">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B162" t="str">
         <v>U.N</v>
       </c>
       <c r="C162" t="str">
-        <v>2"</v>
+        <v>3"</v>
       </c>
       <c r="D162" t="str">
-        <v>GLOBE VALVE, RF, 600#, B16.10, A216 GR WCB</v>
+        <v xml:space="preserve">GASKET, SWG, 1/8", RF, #600, GRAPHITE </v>
       </c>
       <c r="E162">
-        <v>57</v>
+        <v>1.14</v>
       </c>
       <c r="F162">
-        <v>4214322.410103</v>
+        <v>NaN</v>
       </c>
       <c r="G162">
-        <v>747690.7310789999</v>
+        <v>NaN</v>
       </c>
       <c r="H162">
-        <v>24977.286</v>
+        <v>NaN</v>
       </c>
       <c r="I162">
-        <v>57</v>
+        <v>0.18999999999999997</v>
       </c>
     </row>
     <row r="163">
       <c r="A163">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B163" t="str">
         <v>U.N</v>
       </c>
       <c r="C163" t="str">
-        <v>2"</v>
+        <v>4"</v>
       </c>
       <c r="D163" t="str">
-        <v>GLOBE VALVE, RTJ, #900, B16.10, A216 GR WCB</v>
+        <v xml:space="preserve">GASKET, SWG, 1/8", RF, #600, GRAPHITE </v>
       </c>
       <c r="E163">
-        <v>174</v>
+        <v>4.159999999999999</v>
       </c>
       <c r="F163">
-        <v>3967263.889233</v>
+        <v>NaN</v>
       </c>
       <c r="G163">
-        <v>634232.745546</v>
+        <v>NaN</v>
       </c>
       <c r="H163">
-        <v>132207.471222</v>
+        <v>NaN</v>
       </c>
       <c r="I163">
-        <v>87</v>
+        <v>0.31999999999999995</v>
       </c>
     </row>
     <row r="164">
       <c r="A164">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B164" t="str">
         <v>U.N</v>
@@ -5118,22 +5118,22 @@
         <v>1/2"</v>
       </c>
       <c r="D164" t="str">
-        <v>GLOBE VALVE, SW, 1500#, A105</v>
+        <v>BALL VALVE, FLOATING, NPT, 800#, FB, FS, A216 GR. WCB</v>
       </c>
       <c r="E164">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F164">
-        <v>33984.165314</v>
+        <v>0</v>
       </c>
       <c r="G164">
-        <v>4555.204454</v>
+        <v>0</v>
       </c>
       <c r="H164">
-        <v>1024.619242</v>
+        <v>0</v>
       </c>
       <c r="I164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
@@ -5147,19 +5147,19 @@
         <v>1"</v>
       </c>
       <c r="D165" t="str">
-        <v>BUTTWELD  SCH 160</v>
+        <v>BALL VALVE, FLOATING, NPT, 800#, FB, FS, A216 GR. WCB</v>
       </c>
       <c r="E165">
         <v>0</v>
       </c>
       <c r="F165">
-        <v>NaN</v>
+        <v>0</v>
       </c>
       <c r="G165">
-        <v>NaN</v>
+        <v>0</v>
       </c>
       <c r="H165">
-        <v>NaN</v>
+        <v>0</v>
       </c>
       <c r="I165">
         <v>0</v>
@@ -5176,19 +5176,19 @@
         <v>1 1/2"</v>
       </c>
       <c r="D166" t="str">
-        <v>BUTTWELD  SCH 160</v>
+        <v>BALL VALVE, FLOATING, NPT, 800#, FB, FS, A216 GR. WCB</v>
       </c>
       <c r="E166">
         <v>0</v>
       </c>
       <c r="F166">
-        <v>NaN</v>
+        <v>0</v>
       </c>
       <c r="G166">
-        <v>NaN</v>
+        <v>0</v>
       </c>
       <c r="H166">
-        <v>NaN</v>
+        <v>0</v>
       </c>
       <c r="I166">
         <v>0</v>
@@ -5196,7 +5196,7 @@
     </row>
     <row r="167">
       <c r="A167">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B167" t="str">
         <v>U.N</v>
@@ -5205,27 +5205,27 @@
         <v>2"</v>
       </c>
       <c r="D167" t="str">
-        <v>BUTTWELD  SCH 160</v>
+        <v>BALL VALVE, RF, #150, FB, FS, B16.10, A216 GR. WCB</v>
       </c>
       <c r="E167">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="F167">
-        <v>NaN</v>
+        <v>10055357.357445002</v>
       </c>
       <c r="G167">
-        <v>NaN</v>
+        <v>4897183.190475</v>
       </c>
       <c r="H167">
-        <v>NaN</v>
+        <v>107882.74859999999</v>
       </c>
       <c r="I167">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="168">
       <c r="A168">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="B168" t="str">
         <v>U.N</v>
@@ -5234,27 +5234,27 @@
         <v>3"</v>
       </c>
       <c r="D168" t="str">
-        <v>BUTTWELD  SCH 160</v>
+        <v>BALL VALVE, RF, #150, FB, FS, B16.10, A216 GR. WCB</v>
       </c>
       <c r="E168">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="F168">
-        <v>NaN</v>
+        <v>5839524.583900001</v>
       </c>
       <c r="G168">
-        <v>NaN</v>
+        <v>3968079.5443249997</v>
       </c>
       <c r="H168">
-        <v>NaN</v>
+        <v>18989.989824999997</v>
       </c>
       <c r="I168">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="169">
       <c r="A169">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B169" t="str">
         <v>U.N</v>
@@ -5263,106 +5263,106 @@
         <v>4"</v>
       </c>
       <c r="D169" t="str">
-        <v>BUTTWELD  SCH 160</v>
+        <v>BALL VALVE, RF, #150, FB, FS, B16.10, A216 GR. WCB</v>
       </c>
       <c r="E169">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F169">
-        <v>NaN</v>
+        <v>14890378.13262</v>
       </c>
       <c r="G169">
-        <v>NaN</v>
+        <v>8160260.509665</v>
       </c>
       <c r="H169">
-        <v>NaN</v>
+        <v>148320</v>
       </c>
       <c r="I169">
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="170">
       <c r="A170">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="B170" t="str">
         <v>U.N</v>
       </c>
       <c r="C170" t="str">
-        <v>3"</v>
+        <v>6"</v>
       </c>
       <c r="D170" t="str">
-        <v>BUTTWELD  SCH 40</v>
+        <v>BALL VALVE, RF, #150, FB, FS, B16.10, A216 GR. WCB</v>
       </c>
       <c r="E170">
-        <v>0</v>
+        <v>231</v>
       </c>
       <c r="F170">
-        <v>NaN</v>
+        <v>46455980.545743994</v>
       </c>
       <c r="G170">
-        <v>NaN</v>
+        <v>19186477.837912</v>
       </c>
       <c r="H170">
-        <v>NaN</v>
+        <v>665541.515716</v>
       </c>
       <c r="I170">
-        <v>0</v>
+        <v>77</v>
       </c>
     </row>
     <row r="171">
       <c r="A171">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B171" t="str">
         <v>U.N</v>
       </c>
       <c r="C171" t="str">
-        <v>4"</v>
+        <v>3"</v>
       </c>
       <c r="D171" t="str">
-        <v>BUTTWELD  SCH 40</v>
+        <v>BALL VALVE, RF, #600, FB, FS, B16.10, A216 GR WCB</v>
       </c>
       <c r="E171">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="F171">
-        <v>NaN</v>
+        <v>1686875.736924</v>
       </c>
       <c r="G171">
-        <v>NaN</v>
+        <v>306510.98245199997</v>
       </c>
       <c r="H171">
-        <v>NaN</v>
+        <v>54706.539816</v>
       </c>
       <c r="I171">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="172">
       <c r="A172">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="B172" t="str">
         <v>U.N</v>
       </c>
       <c r="C172" t="str">
-        <v>6"</v>
+        <v>1/2"</v>
       </c>
       <c r="D172" t="str">
-        <v>BUTTWELD  SCH 40</v>
+        <v>BALL VALVE, SW, 5000 CWP, FB, FS, B16.10</v>
       </c>
       <c r="E172">
         <v>0</v>
       </c>
       <c r="F172">
-        <v>NaN</v>
+        <v>0</v>
       </c>
       <c r="G172">
-        <v>NaN</v>
+        <v>0</v>
       </c>
       <c r="H172">
-        <v>NaN</v>
+        <v>0</v>
       </c>
       <c r="I172">
         <v>0</v>
@@ -5370,28 +5370,28 @@
     </row>
     <row r="173">
       <c r="A173">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="B173" t="str">
         <v>U.N</v>
       </c>
       <c r="C173" t="str">
-        <v>2"</v>
+        <v>3/4"</v>
       </c>
       <c r="D173" t="str">
-        <v>BUTTWELD  SCH 80</v>
+        <v>BALL VALVE, SW, 5000 CWP, FB, FS, B16.10</v>
       </c>
       <c r="E173">
         <v>0</v>
       </c>
       <c r="F173">
-        <v>NaN</v>
+        <v>0</v>
       </c>
       <c r="G173">
-        <v>NaN</v>
+        <v>0</v>
       </c>
       <c r="H173">
-        <v>NaN</v>
+        <v>0</v>
       </c>
       <c r="I173">
         <v>0</v>
@@ -5399,7 +5399,7 @@
     </row>
     <row r="174">
       <c r="A174">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="B174" t="str">
         <v>U.N</v>
@@ -5408,27 +5408,27 @@
         <v>3"</v>
       </c>
       <c r="D174" t="str">
-        <v>BUTTWELD  SCH 80</v>
+        <v>BALL VALVE, TRUNNION, RTJ, #900, B16.10, A216 GR WCB</v>
       </c>
       <c r="E174">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="F174">
-        <v>NaN</v>
+        <v>2550104.389745</v>
       </c>
       <c r="G174">
-        <v>NaN</v>
+        <v>571949.42574</v>
       </c>
       <c r="H174">
-        <v>NaN</v>
+        <v>83579.43583</v>
       </c>
       <c r="I174">
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="175">
       <c r="A175">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="B175" t="str">
         <v>U.N</v>
@@ -5437,158 +5437,167 @@
         <v>4"</v>
       </c>
       <c r="D175" t="str">
-        <v>BUTTWELD  SCH 80</v>
+        <v>BALL VALVE, TRUNNION, RTJ, #900, B16.10, A216 GR WCB</v>
       </c>
       <c r="E175">
-        <v>0</v>
+        <v>344</v>
       </c>
       <c r="F175">
-        <v>NaN</v>
+        <v>6673769.656843999</v>
       </c>
       <c r="G175">
-        <v>NaN</v>
+        <v>827707.402824</v>
       </c>
       <c r="H175">
-        <v>NaN</v>
+        <v>101778.7296</v>
       </c>
       <c r="I175">
-        <v>0</v>
+        <v>86</v>
       </c>
     </row>
     <row r="176">
       <c r="A176">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="B176" t="str">
         <v>U.N</v>
       </c>
       <c r="C176" t="str">
-        <v>1/2"</v>
+        <v>1 1/2"</v>
       </c>
       <c r="D176" t="str">
-        <v>SOCKETWELD  SCH 160</v>
+        <v>CHECK VALVE, SPRING LOADED BALL, NPT, B16.10, A105</v>
       </c>
       <c r="E176">
-        <v>0</v>
+        <v>18.2</v>
       </c>
       <c r="F176">
-        <v>NaN</v>
+        <v>1034367.3430635999</v>
       </c>
       <c r="G176">
-        <v>NaN</v>
+        <v>118664.00930019999</v>
       </c>
       <c r="H176">
-        <v>NaN</v>
+        <v>1170.26</v>
       </c>
       <c r="I176">
-        <v>0</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="177">
       <c r="A177">
-        <v>163</v>
+        <v>2</v>
       </c>
       <c r="B177" t="str">
         <v>U.N</v>
       </c>
       <c r="C177" t="str">
-        <v>3/4"</v>
+        <v>2"</v>
       </c>
       <c r="D177" t="str">
-        <v>SOCKETWELD  SCH 160</v>
+        <v>CHECK VALVE, SWING, RF, #150, B16.10, A216 GR WCB</v>
       </c>
       <c r="E177">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="F177">
-        <v>NaN</v>
+        <v>3112288.02282</v>
       </c>
       <c r="G177">
-        <v>NaN</v>
+        <v>2302195.098444</v>
       </c>
       <c r="H177">
-        <v>NaN</v>
+        <v>22942.386</v>
       </c>
       <c r="I177">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="178">
       <c r="A178">
-        <v>134</v>
+        <v>2</v>
       </c>
       <c r="B178" t="str">
         <v>U.N</v>
       </c>
       <c r="C178" t="str">
-        <v>1"</v>
+        <v>1/2"</v>
       </c>
       <c r="D178" t="str">
-        <v>SOCKETWELD  SCH 160</v>
+        <v>FLOATING BALL VALVE, 1000#, NPT, B16.10, A-105</v>
       </c>
       <c r="E178">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="F178">
-        <v>NaN</v>
+        <v>396854.3932752</v>
       </c>
       <c r="G178">
-        <v>NaN</v>
+        <v>202239.36976079998</v>
       </c>
       <c r="H178">
-        <v>NaN</v>
+        <v>1221.052896</v>
       </c>
       <c r="I178">
-        <v>0</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="179">
       <c r="A179">
-        <v>119</v>
+        <v>5</v>
       </c>
       <c r="B179" t="str">
         <v>U.N</v>
       </c>
       <c r="C179" t="str">
-        <v>1 1/2"</v>
+        <v>1"</v>
       </c>
       <c r="D179" t="str">
-        <v>SOCKETWELD  SCH 160</v>
+        <v>FLOATING BALL VALVE, 1000#, NPT, B16.10, A-105</v>
       </c>
       <c r="E179">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F179">
-        <v>NaN</v>
+        <v>1007685.4665528</v>
       </c>
       <c r="G179">
-        <v>NaN</v>
+        <v>731256.2859167999</v>
       </c>
       <c r="H179">
-        <v>NaN</v>
+        <v>5212.891823999999</v>
       </c>
       <c r="I179">
-        <v>0</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="180">
       <c r="A180">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B180" t="str">
         <v>U.N</v>
       </c>
       <c r="C180" t="str">
-        <v>1/2"</v>
+        <v>1 1/2"</v>
       </c>
       <c r="D180" t="str">
-        <v>SOCKETWELD  SCH 80</v>
+        <v>FLOATING BALL VALVE, 1000#, NPT, B16.10, A-105</v>
       </c>
       <c r="E180">
-        <v>0</v>
+        <v>19.52</v>
+      </c>
+      <c r="F180">
+        <v>1614053.02353248</v>
+      </c>
+      <c r="G180">
+        <v>997607.2905824</v>
+      </c>
+      <c r="H180">
+        <v>4965.6151104</v>
       </c>
       <c r="I180">
-        <v>0</v>
+        <v>9.76</v>
       </c>
     </row>
     <row r="181">
@@ -5599,16 +5608,25 @@
         <v>U.N</v>
       </c>
       <c r="C181" t="str">
-        <v>1"</v>
+        <v>2"</v>
       </c>
       <c r="D181" t="str">
-        <v>SOCKETWELD  SCH 80</v>
+        <v>GLOBE VALVE, RF, 600#, B16.10, A216 GR WCB</v>
       </c>
       <c r="E181">
-        <v>0</v>
+        <v>57</v>
+      </c>
+      <c r="F181">
+        <v>4214322.410103</v>
+      </c>
+      <c r="G181">
+        <v>747690.7310789999</v>
+      </c>
+      <c r="H181">
+        <v>24977.286</v>
       </c>
       <c r="I181">
-        <v>0</v>
+        <v>57</v>
       </c>
     </row>
     <row r="182">
@@ -5619,80 +5637,80 @@
         <v>U.N</v>
       </c>
       <c r="C182" t="str">
-        <v>1 1/2"</v>
+        <v>2"</v>
       </c>
       <c r="D182" t="str">
-        <v>SOCKETWELD  SCH 80</v>
+        <v>GLOBE VALVE, RTJ, #900, B16.10, A216 GR WCB</v>
       </c>
       <c r="E182">
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="F182">
-        <v>NaN</v>
+        <v>3967263.889233</v>
       </c>
       <c r="G182">
-        <v>NaN</v>
+        <v>634232.745546</v>
       </c>
       <c r="H182">
-        <v>NaN</v>
+        <v>132207.471222</v>
       </c>
       <c r="I182">
-        <v>0</v>
+        <v>87</v>
       </c>
     </row>
     <row r="183">
       <c r="A183">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B183" t="str">
         <v>U.N</v>
       </c>
       <c r="C183" t="str">
-        <v>1"</v>
+        <v>1/2"</v>
       </c>
       <c r="D183" t="str">
-        <v>TAPWELD 3000#</v>
+        <v>GLOBE VALVE, SW, 1500#, A105</v>
       </c>
       <c r="E183">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F183">
-        <v>112156.65069253</v>
+        <v>33984.165314</v>
       </c>
       <c r="G183">
-        <v>55245.58285192</v>
+        <v>4555.204454</v>
       </c>
       <c r="H183">
-        <v>1089.05167372</v>
+        <v>1024.619242</v>
       </c>
       <c r="I183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184">
       <c r="A184">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B184" t="str">
         <v>U.N</v>
       </c>
       <c r="C184" t="str">
-        <v>1/2"</v>
+        <v>1"</v>
       </c>
       <c r="D184" t="str">
-        <v>TAPWELD 3000#</v>
+        <v>BUTTWELD  SCH 160</v>
       </c>
       <c r="E184">
         <v>0</v>
       </c>
       <c r="F184">
-        <v>186624.78430826997</v>
+        <v>NaN</v>
       </c>
       <c r="G184">
-        <v>87073.36968129002</v>
+        <v>NaN</v>
       </c>
       <c r="H184">
-        <v>1450.2393002599997</v>
+        <v>NaN</v>
       </c>
       <c r="I184">
         <v>0</v>
@@ -5700,28 +5718,28 @@
     </row>
     <row r="185">
       <c r="A185">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B185" t="str">
         <v>U.N</v>
       </c>
       <c r="C185" t="str">
-        <v>2"</v>
+        <v>1 1/2"</v>
       </c>
       <c r="D185" t="str">
-        <v>TAPWELD 3000#</v>
+        <v>BUTTWELD  SCH 160</v>
       </c>
       <c r="E185">
         <v>0</v>
       </c>
       <c r="F185">
-        <v>226268.14713085</v>
+        <v>NaN</v>
       </c>
       <c r="G185">
-        <v>35220.547564</v>
+        <v>NaN</v>
       </c>
       <c r="H185">
-        <v>4134.024345900001</v>
+        <v>NaN</v>
       </c>
       <c r="I185">
         <v>0</v>
@@ -5729,28 +5747,28 @@
     </row>
     <row r="186">
       <c r="A186">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="B186" t="str">
         <v>U.N</v>
       </c>
       <c r="C186" t="str">
-        <v>3"</v>
+        <v>2"</v>
       </c>
       <c r="D186" t="str">
-        <v>TAPWELD 3000#</v>
+        <v>BUTTWELD  SCH 160</v>
       </c>
       <c r="E186">
         <v>0</v>
       </c>
       <c r="F186">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="G186">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="I186">
         <v>0</v>
@@ -5758,28 +5776,28 @@
     </row>
     <row r="187">
       <c r="A187">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B187" t="str">
         <v>U.N</v>
       </c>
       <c r="C187" t="str">
-        <v>3/4"</v>
+        <v>3"</v>
       </c>
       <c r="D187" t="str">
-        <v>TAPWELD 3000#</v>
+        <v>BUTTWELD  SCH 160</v>
       </c>
       <c r="E187">
         <v>0</v>
       </c>
       <c r="F187">
-        <v>7497.22549744</v>
+        <v>NaN</v>
       </c>
       <c r="G187">
-        <v>1227.258856</v>
+        <v>NaN</v>
       </c>
       <c r="H187">
-        <v>243.14017696</v>
+        <v>NaN</v>
       </c>
       <c r="I187">
         <v>0</v>
@@ -5787,7 +5805,7 @@
     </row>
     <row r="188">
       <c r="A188">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B188" t="str">
         <v>U.N</v>
@@ -5796,19 +5814,19 @@
         <v>4"</v>
       </c>
       <c r="D188" t="str">
-        <v>TAPWELD 3000#</v>
+        <v>BUTTWELD  SCH 160</v>
       </c>
       <c r="E188">
         <v>0</v>
       </c>
       <c r="F188">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="G188">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="I188">
         <v>0</v>
@@ -5816,28 +5834,28 @@
     </row>
     <row r="189">
       <c r="A189">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B189" t="str">
         <v>U.N</v>
       </c>
       <c r="C189" t="str">
-        <v>1 1/2"</v>
+        <v>3"</v>
       </c>
       <c r="D189" t="str">
-        <v>TAPWELD 6000#</v>
+        <v>BUTTWELD  SCH 40</v>
       </c>
       <c r="E189">
         <v>0</v>
       </c>
       <c r="F189">
-        <v>17839.25347291</v>
+        <v>NaN</v>
       </c>
       <c r="G189">
-        <v>2261.7586007399996</v>
+        <v>NaN</v>
       </c>
       <c r="H189">
-        <v>169.19604918</v>
+        <v>NaN</v>
       </c>
       <c r="I189">
         <v>0</v>
@@ -5845,28 +5863,28 @@
     </row>
     <row r="190">
       <c r="A190">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B190" t="str">
         <v>U.N</v>
       </c>
       <c r="C190" t="str">
-        <v>1"</v>
+        <v>4"</v>
       </c>
       <c r="D190" t="str">
-        <v>TAPWELD 6000#</v>
+        <v>BUTTWELD  SCH 40</v>
       </c>
       <c r="E190">
         <v>0</v>
       </c>
       <c r="F190">
-        <v>3448.64462922</v>
+        <v>NaN</v>
       </c>
       <c r="G190">
-        <v>705.1971161700001</v>
+        <v>NaN</v>
       </c>
       <c r="H190">
-        <v>48.512719260000004</v>
+        <v>NaN</v>
       </c>
       <c r="I190">
         <v>0</v>
@@ -5874,28 +5892,28 @@
     </row>
     <row r="191">
       <c r="A191">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="B191" t="str">
         <v>U.N</v>
       </c>
       <c r="C191" t="str">
-        <v>1/2"</v>
+        <v>6"</v>
       </c>
       <c r="D191" t="str">
-        <v>TAPWELD 6000#</v>
+        <v>BUTTWELD  SCH 40</v>
       </c>
       <c r="E191">
         <v>0</v>
       </c>
       <c r="F191">
-        <v>21271.716644190004</v>
+        <v>NaN</v>
       </c>
       <c r="G191">
-        <v>3788.74231156</v>
+        <v>NaN</v>
       </c>
       <c r="H191">
-        <v>440.78974306</v>
+        <v>NaN</v>
       </c>
       <c r="I191">
         <v>0</v>
@@ -5903,28 +5921,28 @@
     </row>
     <row r="192">
       <c r="A192">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="B192" t="str">
         <v>U.N</v>
       </c>
       <c r="C192" t="str">
-        <v>3/4"</v>
+        <v>2"</v>
       </c>
       <c r="D192" t="str">
-        <v>TAPWELD 6000#</v>
+        <v>BUTTWELD  SCH 80</v>
       </c>
       <c r="E192">
         <v>0</v>
       </c>
       <c r="F192">
-        <v>2688.2135</v>
+        <v>NaN</v>
       </c>
       <c r="G192">
-        <v>364.41634736000003</v>
+        <v>NaN</v>
       </c>
       <c r="H192">
-        <v>28.966542399999998</v>
+        <v>NaN</v>
       </c>
       <c r="I192">
         <v>0</v>
@@ -5932,16 +5950,16 @@
     </row>
     <row r="193">
       <c r="A193">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B193" t="str">
         <v>U.N</v>
       </c>
       <c r="C193" t="str">
-        <v>1/2"</v>
+        <v>3"</v>
       </c>
       <c r="D193" t="str">
-        <v>THREAD  SCH 160</v>
+        <v>BUTTWELD  SCH 80</v>
       </c>
       <c r="E193">
         <v>0</v>
@@ -5961,16 +5979,16 @@
     </row>
     <row r="194">
       <c r="A194">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="B194" t="str">
         <v>U.N</v>
       </c>
       <c r="C194" t="str">
-        <v>3/4"</v>
+        <v>4"</v>
       </c>
       <c r="D194" t="str">
-        <v>THREAD  SCH 160</v>
+        <v>BUTTWELD  SCH 80</v>
       </c>
       <c r="E194">
         <v>0</v>
@@ -5990,16 +6008,16 @@
     </row>
     <row r="195">
       <c r="A195">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="B195" t="str">
         <v>U.N</v>
       </c>
       <c r="C195" t="str">
-        <v>1"</v>
+        <v>1/2"</v>
       </c>
       <c r="D195" t="str">
-        <v>THREAD  SCH 160</v>
+        <v>SOCKETWELD  SCH 160</v>
       </c>
       <c r="E195">
         <v>0</v>
@@ -6019,16 +6037,16 @@
     </row>
     <row r="196">
       <c r="A196">
-        <v>11</v>
+        <v>163</v>
       </c>
       <c r="B196" t="str">
         <v>U.N</v>
       </c>
       <c r="C196" t="str">
-        <v>1 1/2"</v>
+        <v>3/4"</v>
       </c>
       <c r="D196" t="str">
-        <v>THREAD  SCH 160</v>
+        <v>SOCKETWELD  SCH 160</v>
       </c>
       <c r="E196">
         <v>0</v>
@@ -6048,16 +6066,16 @@
     </row>
     <row r="197">
       <c r="A197">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B197" t="str">
         <v>U.N</v>
       </c>
       <c r="C197" t="str">
-        <v>1/2"</v>
+        <v>1"</v>
       </c>
       <c r="D197" t="str">
-        <v>THREAD  SCH 80</v>
+        <v>SOCKETWELD  SCH 160</v>
       </c>
       <c r="E197">
         <v>0</v>
@@ -6077,16 +6095,16 @@
     </row>
     <row r="198">
       <c r="A198">
-        <v>11</v>
+        <v>119</v>
       </c>
       <c r="B198" t="str">
         <v>U.N</v>
       </c>
       <c r="C198" t="str">
-        <v>3/4"</v>
+        <v>1 1/2"</v>
       </c>
       <c r="D198" t="str">
-        <v>THREAD  SCH 80</v>
+        <v>SOCKETWELD  SCH 160</v>
       </c>
       <c r="E198">
         <v>0</v>
@@ -6106,28 +6124,19 @@
     </row>
     <row r="199">
       <c r="A199">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="B199" t="str">
         <v>U.N</v>
       </c>
       <c r="C199" t="str">
-        <v>1"</v>
+        <v>1/2"</v>
       </c>
       <c r="D199" t="str">
-        <v>THREAD  SCH 80</v>
+        <v>SOCKETWELD  SCH 80</v>
       </c>
       <c r="E199">
         <v>0</v>
-      </c>
-      <c r="F199">
-        <v>NaN</v>
-      </c>
-      <c r="G199">
-        <v>NaN</v>
-      </c>
-      <c r="H199">
-        <v>NaN</v>
       </c>
       <c r="I199">
         <v>0</v>
@@ -6135,36 +6144,578 @@
     </row>
     <row r="200">
       <c r="A200">
+        <v>1</v>
+      </c>
+      <c r="B200" t="str">
+        <v>U.N</v>
+      </c>
+      <c r="C200" t="str">
+        <v>1"</v>
+      </c>
+      <c r="D200" t="str">
+        <v>SOCKETWELD  SCH 80</v>
+      </c>
+      <c r="E200">
+        <v>0</v>
+      </c>
+      <c r="I200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201">
+        <v>2</v>
+      </c>
+      <c r="B201" t="str">
+        <v>U.N</v>
+      </c>
+      <c r="C201" t="str">
+        <v>1 1/2"</v>
+      </c>
+      <c r="D201" t="str">
+        <v>SOCKETWELD  SCH 80</v>
+      </c>
+      <c r="E201">
+        <v>0</v>
+      </c>
+      <c r="F201">
+        <v>NaN</v>
+      </c>
+      <c r="G201">
+        <v>NaN</v>
+      </c>
+      <c r="H201">
+        <v>NaN</v>
+      </c>
+      <c r="I201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202">
+        <v>7</v>
+      </c>
+      <c r="B202" t="str">
+        <v>U.N</v>
+      </c>
+      <c r="C202" t="str">
+        <v>1"</v>
+      </c>
+      <c r="D202" t="str">
+        <v>TAPWELD 3000#</v>
+      </c>
+      <c r="E202">
+        <v>0</v>
+      </c>
+      <c r="F202">
+        <v>112156.65069253</v>
+      </c>
+      <c r="G202">
+        <v>55245.58285192</v>
+      </c>
+      <c r="H202">
+        <v>1089.0516737200003</v>
+      </c>
+      <c r="I202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203">
+        <v>19</v>
+      </c>
+      <c r="B203" t="str">
+        <v>U.N</v>
+      </c>
+      <c r="C203" t="str">
+        <v>1/2"</v>
+      </c>
+      <c r="D203" t="str">
+        <v>TAPWELD 3000#</v>
+      </c>
+      <c r="E203">
+        <v>0</v>
+      </c>
+      <c r="F203">
+        <v>186624.78430826997</v>
+      </c>
+      <c r="G203">
+        <v>87073.36968129002</v>
+      </c>
+      <c r="H203">
+        <v>1450.2393002599997</v>
+      </c>
+      <c r="I203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204">
+        <v>5</v>
+      </c>
+      <c r="B204" t="str">
+        <v>U.N</v>
+      </c>
+      <c r="C204" t="str">
+        <v>2"</v>
+      </c>
+      <c r="D204" t="str">
+        <v>TAPWELD 3000#</v>
+      </c>
+      <c r="E204">
+        <v>0</v>
+      </c>
+      <c r="F204">
+        <v>226268.14713085</v>
+      </c>
+      <c r="G204">
+        <v>35220.547564</v>
+      </c>
+      <c r="H204">
+        <v>4134.0243459</v>
+      </c>
+      <c r="I204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205">
+        <v>2</v>
+      </c>
+      <c r="B205" t="str">
+        <v>U.N</v>
+      </c>
+      <c r="C205" t="str">
+        <v>3"</v>
+      </c>
+      <c r="D205" t="str">
+        <v>TAPWELD 3000#</v>
+      </c>
+      <c r="E205">
+        <v>0</v>
+      </c>
+      <c r="F205">
+        <v>0</v>
+      </c>
+      <c r="G205">
+        <v>0</v>
+      </c>
+      <c r="H205">
+        <v>0</v>
+      </c>
+      <c r="I205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206">
+        <v>2</v>
+      </c>
+      <c r="B206" t="str">
+        <v>U.N</v>
+      </c>
+      <c r="C206" t="str">
+        <v>3/4"</v>
+      </c>
+      <c r="D206" t="str">
+        <v>TAPWELD 3000#</v>
+      </c>
+      <c r="E206">
+        <v>0</v>
+      </c>
+      <c r="F206">
+        <v>7497.22549744</v>
+      </c>
+      <c r="G206">
+        <v>1227.258856</v>
+      </c>
+      <c r="H206">
+        <v>243.14017696</v>
+      </c>
+      <c r="I206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207">
+        <v>1</v>
+      </c>
+      <c r="B207" t="str">
+        <v>U.N</v>
+      </c>
+      <c r="C207" t="str">
+        <v>4"</v>
+      </c>
+      <c r="D207" t="str">
+        <v>TAPWELD 3000#</v>
+      </c>
+      <c r="E207">
+        <v>0</v>
+      </c>
+      <c r="F207">
+        <v>0</v>
+      </c>
+      <c r="G207">
+        <v>0</v>
+      </c>
+      <c r="H207">
+        <v>0</v>
+      </c>
+      <c r="I207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208">
+        <v>2</v>
+      </c>
+      <c r="B208" t="str">
+        <v>U.N</v>
+      </c>
+      <c r="C208" t="str">
+        <v>1 1/2"</v>
+      </c>
+      <c r="D208" t="str">
+        <v>TAPWELD 6000#</v>
+      </c>
+      <c r="E208">
+        <v>0</v>
+      </c>
+      <c r="F208">
+        <v>17839.25347291</v>
+      </c>
+      <c r="G208">
+        <v>2261.7586007399996</v>
+      </c>
+      <c r="H208">
+        <v>169.19604918</v>
+      </c>
+      <c r="I208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209">
+        <v>1</v>
+      </c>
+      <c r="B209" t="str">
+        <v>U.N</v>
+      </c>
+      <c r="C209" t="str">
+        <v>1"</v>
+      </c>
+      <c r="D209" t="str">
+        <v>TAPWELD 6000#</v>
+      </c>
+      <c r="E209">
+        <v>0</v>
+      </c>
+      <c r="F209">
+        <v>3448.64462922</v>
+      </c>
+      <c r="G209">
+        <v>705.1971161700001</v>
+      </c>
+      <c r="H209">
+        <v>48.512719260000004</v>
+      </c>
+      <c r="I209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210">
+        <v>9</v>
+      </c>
+      <c r="B210" t="str">
+        <v>U.N</v>
+      </c>
+      <c r="C210" t="str">
+        <v>1/2"</v>
+      </c>
+      <c r="D210" t="str">
+        <v>TAPWELD 6000#</v>
+      </c>
+      <c r="E210">
+        <v>0</v>
+      </c>
+      <c r="F210">
+        <v>21271.71664419</v>
+      </c>
+      <c r="G210">
+        <v>3788.7423115599995</v>
+      </c>
+      <c r="H210">
+        <v>440.78974306</v>
+      </c>
+      <c r="I210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211">
+        <v>1</v>
+      </c>
+      <c r="B211" t="str">
+        <v>U.N</v>
+      </c>
+      <c r="C211" t="str">
+        <v>3/4"</v>
+      </c>
+      <c r="D211" t="str">
+        <v>TAPWELD 6000#</v>
+      </c>
+      <c r="E211">
+        <v>0</v>
+      </c>
+      <c r="F211">
+        <v>2688.2135</v>
+      </c>
+      <c r="G211">
+        <v>364.41634736000003</v>
+      </c>
+      <c r="H211">
+        <v>28.966542399999998</v>
+      </c>
+      <c r="I211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212">
+        <v>24</v>
+      </c>
+      <c r="B212" t="str">
+        <v>U.N</v>
+      </c>
+      <c r="C212" t="str">
+        <v>1/2"</v>
+      </c>
+      <c r="D212" t="str">
+        <v>THREAD  SCH 160</v>
+      </c>
+      <c r="E212">
+        <v>0</v>
+      </c>
+      <c r="F212">
+        <v>NaN</v>
+      </c>
+      <c r="G212">
+        <v>NaN</v>
+      </c>
+      <c r="H212">
+        <v>NaN</v>
+      </c>
+      <c r="I212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213">
+        <v>3</v>
+      </c>
+      <c r="B213" t="str">
+        <v>U.N</v>
+      </c>
+      <c r="C213" t="str">
+        <v>3/4"</v>
+      </c>
+      <c r="D213" t="str">
+        <v>THREAD  SCH 160</v>
+      </c>
+      <c r="E213">
+        <v>0</v>
+      </c>
+      <c r="F213">
+        <v>NaN</v>
+      </c>
+      <c r="G213">
+        <v>NaN</v>
+      </c>
+      <c r="H213">
+        <v>NaN</v>
+      </c>
+      <c r="I213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214">
+        <v>9</v>
+      </c>
+      <c r="B214" t="str">
+        <v>U.N</v>
+      </c>
+      <c r="C214" t="str">
+        <v>1"</v>
+      </c>
+      <c r="D214" t="str">
+        <v>THREAD  SCH 160</v>
+      </c>
+      <c r="E214">
+        <v>0</v>
+      </c>
+      <c r="F214">
+        <v>NaN</v>
+      </c>
+      <c r="G214">
+        <v>NaN</v>
+      </c>
+      <c r="H214">
+        <v>NaN</v>
+      </c>
+      <c r="I214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215">
+        <v>11</v>
+      </c>
+      <c r="B215" t="str">
+        <v>U.N</v>
+      </c>
+      <c r="C215" t="str">
+        <v>1 1/2"</v>
+      </c>
+      <c r="D215" t="str">
+        <v>THREAD  SCH 160</v>
+      </c>
+      <c r="E215">
+        <v>0</v>
+      </c>
+      <c r="F215">
+        <v>NaN</v>
+      </c>
+      <c r="G215">
+        <v>NaN</v>
+      </c>
+      <c r="H215">
+        <v>NaN</v>
+      </c>
+      <c r="I215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216">
+        <v>141</v>
+      </c>
+      <c r="B216" t="str">
+        <v>U.N</v>
+      </c>
+      <c r="C216" t="str">
+        <v>1/2"</v>
+      </c>
+      <c r="D216" t="str">
+        <v>THREAD  SCH 80</v>
+      </c>
+      <c r="E216">
+        <v>0</v>
+      </c>
+      <c r="F216">
+        <v>NaN</v>
+      </c>
+      <c r="G216">
+        <v>NaN</v>
+      </c>
+      <c r="H216">
+        <v>NaN</v>
+      </c>
+      <c r="I216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217">
+        <v>11</v>
+      </c>
+      <c r="B217" t="str">
+        <v>U.N</v>
+      </c>
+      <c r="C217" t="str">
+        <v>3/4"</v>
+      </c>
+      <c r="D217" t="str">
+        <v>THREAD  SCH 80</v>
+      </c>
+      <c r="E217">
+        <v>0</v>
+      </c>
+      <c r="F217">
+        <v>NaN</v>
+      </c>
+      <c r="G217">
+        <v>NaN</v>
+      </c>
+      <c r="H217">
+        <v>NaN</v>
+      </c>
+      <c r="I217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218">
+        <v>37</v>
+      </c>
+      <c r="B218" t="str">
+        <v>U.N</v>
+      </c>
+      <c r="C218" t="str">
+        <v>1"</v>
+      </c>
+      <c r="D218" t="str">
+        <v>THREAD  SCH 80</v>
+      </c>
+      <c r="E218">
+        <v>0</v>
+      </c>
+      <c r="F218">
+        <v>NaN</v>
+      </c>
+      <c r="G218">
+        <v>NaN</v>
+      </c>
+      <c r="H218">
+        <v>NaN</v>
+      </c>
+      <c r="I218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219">
         <v>6</v>
       </c>
-      <c r="B200" t="str">
-        <v>U.N</v>
-      </c>
-      <c r="C200" t="str">
+      <c r="B219" t="str">
+        <v>U.N</v>
+      </c>
+      <c r="C219" t="str">
         <v>1 1/2"</v>
       </c>
-      <c r="D200" t="str">
+      <c r="D219" t="str">
         <v>THREAD  SCH 80</v>
       </c>
-      <c r="E200">
-        <v>0</v>
-      </c>
-      <c r="F200">
-        <v>NaN</v>
-      </c>
-      <c r="G200">
-        <v>NaN</v>
-      </c>
-      <c r="H200">
-        <v>NaN</v>
-      </c>
-      <c r="I200">
+      <c r="E219">
+        <v>0</v>
+      </c>
+      <c r="F219">
+        <v>NaN</v>
+      </c>
+      <c r="G219">
+        <v>NaN</v>
+      </c>
+      <c r="H219">
+        <v>NaN</v>
+      </c>
+      <c r="I219">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I200"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I219"/>
   </ignoredErrors>
 </worksheet>
 </file>